--- a/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>NX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>196600</v>
+      </c>
+      <c r="E8" s="3">
         <v>240400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>238500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>218200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>196800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>244100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>239800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>214200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>191700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>232100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>229400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>405000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>195100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>157400</v>
+      </c>
+      <c r="E9" s="3">
         <v>183100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>181400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>171400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>158600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>187700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>185800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>169000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>154500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>177500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>176800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>480000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>154900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E10" s="3">
         <v>57300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>57100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>46800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>38200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>56400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>54000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>45200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>52600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-75000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>40200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +986,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>44700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>30100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
-      </c>
-      <c r="I14" s="3">
-        <v>200</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
       </c>
       <c r="K14" s="3">
+        <v>200</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E15" s="3">
         <v>12400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>13300</v>
       </c>
       <c r="K15" s="3">
         <v>13300</v>
       </c>
       <c r="L15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="M15" s="3">
         <v>13800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>13900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>29800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>15400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>194600</v>
+      </c>
+      <c r="E17" s="3">
         <v>264100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>219400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>237600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>199300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>232400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>223000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>206400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>192300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>215900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>212000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>404300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>198900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-23700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
       </c>
       <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>31600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>21300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>13100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>30200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>31300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>31100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2600</v>
       </c>
       <c r="F22" s="3">
         <v>2600</v>
       </c>
       <c r="G22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2200</v>
       </c>
       <c r="P22" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>14600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-40600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-40600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,26 +1632,29 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E29" s="3">
         <v>9700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>8600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>3000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>2500</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
@@ -1601,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>6500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1615,11 +1676,14 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
       </c>
       <c r="I32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-24000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-24000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E41" s="3">
         <v>30900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>20300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E43" s="3">
         <v>82900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>82300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>80600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>71700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>84000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>80200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>76600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>62100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>79400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>78000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>79700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>62800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E44" s="3">
         <v>67200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>84800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>86600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>81400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>70700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>87100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>92900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>95800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>87500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>94400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>91700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>92200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
         <v>9400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>7300</v>
       </c>
       <c r="H45" s="3">
         <v>7300</v>
       </c>
       <c r="I45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J45" s="3">
         <v>8600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>8100</v>
       </c>
       <c r="N45" s="3">
         <v>8100</v>
       </c>
       <c r="O45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P45" s="3">
         <v>7900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>173200</v>
+      </c>
+      <c r="E46" s="3">
         <v>190300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>186000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>195900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>177900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>191000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>188400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>188100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>179200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>191800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>196300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>194000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>176900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>233800</v>
+      </c>
+      <c r="E48" s="3">
         <v>193600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>190400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>197200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>198700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>201400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>205300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>209500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>213000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>211100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>214800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>213500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>196900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>250900</v>
+      </c>
+      <c r="E49" s="3">
         <v>252900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>295400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>305600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>340300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>341500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>348700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>357900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>365700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>362000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>365900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>367100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>368600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,28 +2568,31 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E52" s="3">
         <v>8300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>9200</v>
       </c>
       <c r="J52" s="3">
         <v>9200</v>
@@ -2481,22 +2601,25 @@
         <v>9200</v>
       </c>
       <c r="L52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="M52" s="3">
         <v>9000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>667200</v>
+      </c>
+      <c r="E54" s="3">
         <v>645100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>680100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>707000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>725700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>743200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>751500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>764800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>767000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>773900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>785100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>782500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>750300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>780400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E57" s="3">
         <v>63600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>52600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>39500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>52400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>41200</v>
       </c>
       <c r="O57" s="3">
         <v>41200</v>
       </c>
       <c r="P57" s="3">
+        <v>41200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,219 +2806,234 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1100</v>
       </c>
       <c r="G58" s="3">
         <v>1100</v>
       </c>
       <c r="H58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>16100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>16200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>17600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E59" s="3">
         <v>45400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>33200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>34100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>36900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>37600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E60" s="3">
         <v>109800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>86600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>84400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>71700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>102400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>95100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>97500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>92900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>106500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>109700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>102700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>88900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>114100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>166700</v>
+      </c>
+      <c r="E61" s="3">
         <v>156400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>191100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>224700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>229600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>209300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>193700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>210900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>215400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>218200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>238000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>266400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>254800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E62" s="3">
         <v>48800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>41000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>37100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>34700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>41100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>39000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>36100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>42400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>44700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>39900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>38300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>337300</v>
+      </c>
+      <c r="E66" s="3">
         <v>314900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>318700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>346200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>335900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>348000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>327800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>344400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>344100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>367000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>392400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>409000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>382000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>412500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E72" s="3">
         <v>185700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>219300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>210400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>236000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>243900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>240000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>230900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>228300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>225700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>216600</v>
-      </c>
-      <c r="N72" s="3">
-        <v>208600</v>
       </c>
       <c r="O72" s="3">
         <v>208600</v>
       </c>
       <c r="P72" s="3">
+        <v>208600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>329900</v>
+      </c>
+      <c r="E76" s="3">
         <v>330200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>361400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>360900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>389800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>395200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>423800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>420300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>423000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>406800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>392700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>373400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>368300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>367800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-24000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E83" s="3">
         <v>12400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>13300</v>
       </c>
       <c r="K83" s="3">
         <v>13300</v>
       </c>
       <c r="L83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="M83" s="3">
         <v>13800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>66300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>56200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>26800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>33300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4166,10 +4400,10 @@
         <v>-2700</v>
       </c>
       <c r="H96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1400</v>
       </c>
       <c r="J96" s="3">
         <v>-1400</v>
@@ -4184,16 +4418,19 @@
         <v>-1400</v>
       </c>
       <c r="N96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O96" s="3">
         <v>-2700</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1400</v>
       </c>
       <c r="P96" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-40700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-34400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-33800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-18200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-25000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-600</v>
       </c>
       <c r="I101" s="3">
         <v>-600</v>
       </c>
       <c r="J101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>200</v>
       </c>
       <c r="L101" s="3">
         <v>200</v>
       </c>
       <c r="M101" s="3">
+        <v>200</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E102" s="3">
         <v>20200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2300</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-3700</v>
       </c>
       <c r="K102" s="3">
         <v>-3700</v>
       </c>
       <c r="L102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="M102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>NX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>187500</v>
+      </c>
+      <c r="E8" s="3">
         <v>196600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>240400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>238500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>218200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>196800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>244100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>239800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>214200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>191700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>232100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>229400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>405000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>195100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>149700</v>
+      </c>
+      <c r="E9" s="3">
         <v>157400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>183100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>181400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>171400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>158600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>187700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>185800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>169000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>154500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>177500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>176800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>480000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>154900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E10" s="3">
         <v>39200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>57300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>57100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>46800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>56400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>54000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>45200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-75000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>40200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1005,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>44700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>30100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
-      </c>
-      <c r="J14" s="3">
-        <v>200</v>
       </c>
       <c r="K14" s="3">
         <v>200</v>
       </c>
       <c r="L14" s="3">
+        <v>200</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E15" s="3">
         <v>12900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>13300</v>
       </c>
       <c r="L15" s="3">
         <v>13300</v>
       </c>
       <c r="M15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="N15" s="3">
         <v>13800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>13900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>29800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>15400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>178600</v>
+      </c>
+      <c r="E17" s="3">
         <v>194600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>264100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>219400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>237600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>199300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>232400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>223000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>206400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>192300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>215900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>212000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>404300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>198900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-23700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>300</v>
       </c>
       <c r="I20" s="3">
         <v>300</v>
       </c>
       <c r="J20" s="3">
+        <v>300</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E21" s="3">
         <v>14900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>31600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>31300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1315,140 +1354,149 @@
         <v>1600</v>
       </c>
       <c r="E22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F22" s="3">
         <v>2000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2600</v>
       </c>
       <c r="G22" s="3">
         <v>2600</v>
       </c>
       <c r="H22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>2200</v>
       </c>
       <c r="Q22" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-40600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,29 +1692,32 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>2500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>9700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>8600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>3000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>2500</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
@@ -1665,13 +1725,13 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>6500</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1679,11 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-300</v>
       </c>
       <c r="I32" s="3">
         <v>-300</v>
       </c>
       <c r="J32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-30900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-24000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-30900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-24000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>80300</v>
+      </c>
+      <c r="E41" s="3">
         <v>23100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>20300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2237,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E43" s="3">
         <v>64000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>82900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>82300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>80600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>71700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>84000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>80200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>76600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>62100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>79400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>78000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>79700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>62800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E44" s="3">
         <v>78100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>67200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>84800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>86600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>81400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>70700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>87100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>92900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>95800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>87500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>94400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>91700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>92200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E45" s="3">
         <v>7900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>7300</v>
       </c>
       <c r="I45" s="3">
         <v>7300</v>
       </c>
       <c r="J45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K45" s="3">
         <v>8600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>8100</v>
       </c>
       <c r="O45" s="3">
         <v>8100</v>
       </c>
       <c r="P45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>7900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>231800</v>
+      </c>
+      <c r="E46" s="3">
         <v>173200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>190300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>186000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>195900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>177900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>191000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>188400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>188100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>179200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>191800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>196300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>194000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>176900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2487,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>229200</v>
+      </c>
+      <c r="E48" s="3">
         <v>233800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>193600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>190400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>197200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>198700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>201400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>205300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>209500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>213000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>211100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>214800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>213500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>196900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>242800</v>
+      </c>
+      <c r="E49" s="3">
         <v>250900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>252900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>295400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>305600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>340300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>341500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>348700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>357900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>365700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>362000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>365900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>367100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>368600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,31 +2687,34 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E52" s="3">
         <v>9300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9300</v>
-      </c>
-      <c r="J52" s="3">
-        <v>9200</v>
       </c>
       <c r="K52" s="3">
         <v>9200</v>
@@ -2604,22 +2723,25 @@
         <v>9200</v>
       </c>
       <c r="M52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="N52" s="3">
         <v>9000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>712900</v>
+      </c>
+      <c r="E54" s="3">
         <v>667200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>645100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>680100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>707000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>725700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>743200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>751500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>764800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>767000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>773900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>785100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>782500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>750300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>780400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E57" s="3">
         <v>49100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>63600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>52600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>48700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>39500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>52400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>44200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>41200</v>
       </c>
       <c r="P57" s="3">
         <v>41200</v>
       </c>
       <c r="Q57" s="3">
+        <v>41200</v>
+      </c>
+      <c r="R57" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2809,231 +2942,246 @@
         <v>700</v>
       </c>
       <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1100</v>
       </c>
       <c r="H58" s="3">
         <v>1100</v>
       </c>
       <c r="I58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>16100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>20200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>17600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E59" s="3">
         <v>40800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>33200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>48700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>34100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>37600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>41200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E60" s="3">
         <v>90600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>109800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>86600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>84400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>102400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>95100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>97500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>92900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>106500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>109700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>102700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>88900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>114100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>229700</v>
+      </c>
+      <c r="E61" s="3">
         <v>166700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>156400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>191100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>224700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>229600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>209300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>193700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>210900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>215400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>218200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>238000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>266400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>254800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>80200</v>
+      </c>
+      <c r="E62" s="3">
         <v>80000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>48800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>41000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>37100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>34700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>39000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>42400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>44700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>39900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>38300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>388900</v>
+      </c>
+      <c r="E66" s="3">
         <v>337300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>314900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>318700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>346200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>335900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>348000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>327800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>344400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>344100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>367000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>392400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>409000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>382000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>412500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>185800</v>
+      </c>
+      <c r="E72" s="3">
         <v>183000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>185700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>219300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>210400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>236000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>243900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>240000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>230900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>228300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>225700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>216600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>208600</v>
       </c>
       <c r="P72" s="3">
         <v>208600</v>
       </c>
       <c r="Q72" s="3">
+        <v>208600</v>
+      </c>
+      <c r="R72" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E76" s="3">
         <v>329900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>330200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>361400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>360900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>389800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>395200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>423800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>420300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>423000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>406800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>392700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>373400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>368300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>367800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-30900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-24000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E83" s="3">
         <v>12900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>13300</v>
       </c>
       <c r="L83" s="3">
         <v>13300</v>
       </c>
       <c r="M83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="N83" s="3">
         <v>13800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>13900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>66300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>56200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>26800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>33300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>15700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,13 +4614,14 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="E96" s="3">
         <v>-2700</v>
@@ -4403,10 +4636,10 @@
         <v>-2700</v>
       </c>
       <c r="I96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1400</v>
       </c>
       <c r="K96" s="3">
         <v>-1400</v>
@@ -4421,16 +4654,19 @@
         <v>-1400</v>
       </c>
       <c r="O96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P96" s="3">
         <v>-2700</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q96" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E100" s="3">
         <v>5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-40700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-34400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-33800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-25000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-600</v>
       </c>
       <c r="J101" s="3">
         <v>-600</v>
       </c>
       <c r="K101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L101" s="3">
         <v>-300</v>
-      </c>
-      <c r="L101" s="3">
-        <v>200</v>
       </c>
       <c r="M101" s="3">
         <v>200</v>
       </c>
       <c r="N101" s="3">
+        <v>200</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-3700</v>
       </c>
       <c r="L102" s="3">
         <v>-3700</v>
       </c>
       <c r="M102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="N102" s="3">
         <v>1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>NX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>212100</v>
+      </c>
+      <c r="E8" s="3">
         <v>187500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>196600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>240400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>238500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>218200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>196800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>244100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>239800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>214200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>191700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>232100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>229400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>405000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>195100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>162400</v>
+      </c>
+      <c r="E9" s="3">
         <v>149700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>157400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>183100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>181400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>171400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>158600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>187700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>185800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>169000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>154500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>177500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>176800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>480000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>154900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E10" s="3">
         <v>37800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>39200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>57300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>57100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>46800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>56400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>54000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>45200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-75000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>40200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>44700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>30100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
-      </c>
-      <c r="K14" s="3">
-        <v>200</v>
       </c>
       <c r="L14" s="3">
         <v>200</v>
       </c>
       <c r="M14" s="3">
+        <v>200</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E15" s="3">
         <v>11900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>12400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>12200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>13300</v>
       </c>
       <c r="M15" s="3">
         <v>13300</v>
       </c>
       <c r="N15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="O15" s="3">
         <v>13800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>13900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>29800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>15400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>195500</v>
+      </c>
+      <c r="E17" s="3">
         <v>178600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>194600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>264100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>219400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>237600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>199300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>232400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>223000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>206400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>192300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>215900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>212000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>404300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>198900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E18" s="3">
         <v>8900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-23700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>300</v>
       </c>
       <c r="J20" s="3">
         <v>300</v>
       </c>
       <c r="K20" s="3">
+        <v>300</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E21" s="3">
         <v>21100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-11600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>31600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>13100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>31100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
         <v>1600</v>
       </c>
       <c r="F22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G22" s="3">
         <v>2000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2600</v>
       </c>
       <c r="H22" s="3">
         <v>2600</v>
       </c>
       <c r="I22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2200</v>
       </c>
       <c r="R22" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E23" s="3">
         <v>7600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-22000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-40600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,32 +1753,35 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>2500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>9700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>8600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>3000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>2500</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -1728,13 +1789,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>6500</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1742,11 +1803,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-300</v>
       </c>
       <c r="J32" s="3">
         <v>-300</v>
       </c>
       <c r="K32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E33" s="3">
         <v>5500</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-30900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-24000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E35" s="3">
         <v>5500</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-30900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-24000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E41" s="3">
         <v>80300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>23100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>17500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,208 +2330,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E43" s="3">
         <v>66900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>64000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>82900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>82300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>80600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>71700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>84000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>80200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>76600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>62100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>79400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>78000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>79700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>62800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E44" s="3">
         <v>75100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>78100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>67200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>84800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>86600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>81400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>70700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>87100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>92900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>95800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>87500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>94400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>91700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>92200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E45" s="3">
         <v>9600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>7300</v>
       </c>
       <c r="J45" s="3">
         <v>7300</v>
       </c>
       <c r="K45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L45" s="3">
         <v>8600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>8100</v>
       </c>
       <c r="P45" s="3">
         <v>8100</v>
       </c>
       <c r="Q45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="R45" s="3">
         <v>7900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>197400</v>
+      </c>
+      <c r="E46" s="3">
         <v>231800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>173200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>190300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>186000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>195900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>177900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>191000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>188400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>188100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>179200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>191800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>196300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>194000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>176900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E48" s="3">
         <v>229200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>233800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>193600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>190400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>197200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>198700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>201400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>205300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>209500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>213000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>211100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>214800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>213500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>196900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>243900</v>
+      </c>
+      <c r="E49" s="3">
         <v>242800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>250900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>252900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>295400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>305600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>340300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>341500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>348700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>357900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>365700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>362000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>365900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>367100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>368600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,25 +2819,25 @@
         <v>9000</v>
       </c>
       <c r="E52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F52" s="3">
         <v>9300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>9200</v>
       </c>
       <c r="L52" s="3">
         <v>9200</v>
@@ -2726,22 +2846,25 @@
         <v>9200</v>
       </c>
       <c r="N52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="O52" s="3">
         <v>9000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>686800</v>
+      </c>
+      <c r="E54" s="3">
         <v>712900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>667200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>645100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>680100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>707000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>725700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>743200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>751500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>764800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>767000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>773900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>785100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>782500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>750300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>780400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E57" s="3">
         <v>42200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>63600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>52600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>39500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>52400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>44900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>44500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>44200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>41200</v>
       </c>
       <c r="Q57" s="3">
         <v>41200</v>
       </c>
       <c r="R57" s="3">
+        <v>41200</v>
+      </c>
+      <c r="S57" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2945,243 +3079,258 @@
         <v>700</v>
       </c>
       <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
         <v>900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1100</v>
       </c>
       <c r="J58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>26400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>20200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E59" s="3">
         <v>36100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>40800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>33200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>34500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>48700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>37600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>41200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E60" s="3">
         <v>79000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>90600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>109800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>86600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>84400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>71700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>102400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>95100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>97500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>92900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>106500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>109700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>102700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>88900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>114100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>152100</v>
+      </c>
+      <c r="E61" s="3">
         <v>229700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>166700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>156400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>191100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>224700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>229600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>209300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>193700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>210900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>215400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>218200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>238000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>266400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>254800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E62" s="3">
         <v>80200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>80000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>48800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>37100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>34700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>36100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>42400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>44700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>39900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>38300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>346900</v>
+      </c>
+      <c r="E66" s="3">
         <v>388900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>337300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>314900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>318700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>346200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>335900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>348000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>327800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>344400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>344100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>367000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>392400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>409000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>382000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>412500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E72" s="3">
         <v>185800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>183000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>185700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>219300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>210400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>236000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>243900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>240000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>230900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>228300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>225700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>216600</v>
-      </c>
-      <c r="P72" s="3">
-        <v>208600</v>
       </c>
       <c r="Q72" s="3">
         <v>208600</v>
       </c>
       <c r="R72" s="3">
+        <v>208600</v>
+      </c>
+      <c r="S72" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>339900</v>
+      </c>
+      <c r="E76" s="3">
         <v>324000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>329900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>330200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>361400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>360900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>389800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>395200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>423800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>420300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>423000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>406800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>392700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>373400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>368300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>367800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E81" s="3">
         <v>5500</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-30900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-24000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E83" s="3">
         <v>11900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>13300</v>
       </c>
       <c r="M83" s="3">
         <v>13300</v>
       </c>
       <c r="N83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="O83" s="3">
         <v>13800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E89" s="3">
         <v>6100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>66300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>29900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>56200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>26800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>33300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>15700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,7 +4858,7 @@
         <v>-2600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="F96" s="3">
         <v>-2700</v>
@@ -4639,10 +4873,10 @@
         <v>-2700</v>
       </c>
       <c r="J96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1400</v>
       </c>
       <c r="L96" s="3">
         <v>-1400</v>
@@ -4657,16 +4891,19 @@
         <v>-1400</v>
       </c>
       <c r="P96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-2700</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1400</v>
       </c>
       <c r="R96" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="E100" s="3">
         <v>58500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-40700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-34400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-33800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-25000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-600</v>
       </c>
       <c r="K101" s="3">
         <v>-600</v>
       </c>
       <c r="L101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M101" s="3">
         <v>-300</v>
-      </c>
-      <c r="M101" s="3">
-        <v>200</v>
       </c>
       <c r="N101" s="3">
         <v>200</v>
       </c>
       <c r="O101" s="3">
+        <v>200</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E102" s="3">
         <v>57100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-3700</v>
       </c>
       <c r="M102" s="3">
         <v>-3700</v>
       </c>
       <c r="N102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>NX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>230100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>255400</v>
+      </c>
+      <c r="F8" s="3">
         <v>212100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>187500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>196600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>240400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>238500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>218200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>196800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>244100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>239800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>214200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>191700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>232100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>229400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>405000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>195100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>176400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>189200</v>
+      </c>
+      <c r="F9" s="3">
         <v>162400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>149700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>157400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>183100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>181400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>171400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>158600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>187700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>185800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>169000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>154500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>177500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>176800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>480000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>154900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>53700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>66200</v>
+      </c>
+      <c r="F10" s="3">
         <v>49700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>37800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>39200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>57300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>57100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>46800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>38200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>56400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>54000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>45200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>37200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>54600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>52600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-75000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>40200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1062,132 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>44700</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>30100</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>30100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F15" s="3">
         <v>11100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>11900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>12900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>12400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>12200</v>
       </c>
       <c r="I15" s="3">
         <v>12400</v>
       </c>
       <c r="J15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="L15" s="3">
         <v>12600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>12500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>12700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>13300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>13300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>13800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>13900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>29800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>15400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>218300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>227600</v>
+      </c>
+      <c r="F17" s="3">
         <v>195500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>178600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>194600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>264100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>219400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>237600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>199300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>232400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>223000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>206400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>192300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>215900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>212000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>404300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>198900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F18" s="3">
         <v>16600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>8900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-23700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>19100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-19400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>11700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>16800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>7800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>16200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>17400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1345,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
       </c>
       <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>300</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>39400</v>
+      </c>
+      <c r="F21" s="3">
         <v>27400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>21100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>14900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-11600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>31600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-7000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>10400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>24500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>29700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>21300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>13100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>30200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>31300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>31100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>12200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2400</v>
       </c>
       <c r="O22" s="3">
         <v>2500</v>
       </c>
       <c r="P22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R22" s="3">
         <v>2600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>4600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F23" s="3">
         <v>15200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>7600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-26100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>16800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-22000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>8500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>14400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>5500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>13900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>14800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F24" s="3">
         <v>13800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>14600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>13600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>5000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4600</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-1600</v>
       </c>
       <c r="S24" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="U24" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-40600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-27000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>10800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>10700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>10200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-40600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-27000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>10800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>10700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>10200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,61 +1872,73 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>500</v>
+      </c>
+      <c r="E29" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F29" s="3">
         <v>9500</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>2500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>9700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>8600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>3000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>2500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>6500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
       </c>
       <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F33" s="3">
         <v>10800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>5500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-30900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>11800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-24000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>6700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>10800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>10700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>10200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F35" s="3">
         <v>10800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>5500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-30900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>11800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-24000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>6700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>10800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>10700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>10200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>51600</v>
+      </c>
+      <c r="F41" s="3">
         <v>41100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>80300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>23100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>30900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>10700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>20300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>17500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>29000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>10100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>13800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>17500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>14500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>14100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2513,250 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>88300</v>
+      </c>
+      <c r="F43" s="3">
         <v>84500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>66900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>64000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>82900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>82300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>80600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>71700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>84000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>80200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>76600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>62100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>79400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>78000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>79700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>62800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>61200</v>
+      </c>
+      <c r="F44" s="3">
         <v>63900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>75100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>78100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>67200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>84800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>86600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>81400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>70700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>87100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>92900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>95800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>87500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>94400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>91700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>92200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7900</v>
+        <v>7200</v>
       </c>
       <c r="E45" s="3">
-        <v>9600</v>
+        <v>6200</v>
       </c>
       <c r="F45" s="3">
         <v>7900</v>
       </c>
       <c r="G45" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I45" s="3">
         <v>9400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>8300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>7300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>8500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>7500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>8100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>7900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>209300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>207300</v>
+      </c>
+      <c r="F46" s="3">
         <v>197400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>231800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>173200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>190300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>186000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>195900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>177900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>191000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>188400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>188100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>179200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>191800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>196300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>194000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>176900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2808,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>235600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>235900</v>
+      </c>
+      <c r="F48" s="3">
         <v>236500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>229200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>233800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>193600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>190400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>197200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>198700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>201400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>205300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>209500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>213000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>211100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>214800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>213500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>196900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>241700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>239200</v>
+      </c>
+      <c r="F49" s="3">
         <v>243900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>242800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>250900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>252900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>295400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>305600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>340300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>341500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>348700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>357900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>365700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>362000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>365900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>367100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>368600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F52" s="3">
         <v>9000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>9000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>9300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>9200</v>
       </c>
       <c r="N52" s="3">
         <v>9200</v>
       </c>
       <c r="O52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="P52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="Q52" s="3">
         <v>9000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>8000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>7800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>7900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>694300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>691600</v>
+      </c>
+      <c r="F54" s="3">
         <v>686800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>712900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>667200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>645100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>680100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>707000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>725700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>743200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>751500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>764800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>767000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>773900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>785100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>782500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>750300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>780400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>77300</v>
+      </c>
+      <c r="F57" s="3">
         <v>58700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>42200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>49100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>63600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>52600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>48700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>39500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>52400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>44900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>44500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>39900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>44200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>45700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>41200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>41200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3082,255 +3350,285 @@
         <v>700</v>
       </c>
       <c r="H58" s="3">
+        <v>700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>16100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>16200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>20800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>21200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>26400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>20200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>17600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>52200</v>
+      </c>
+      <c r="F59" s="3">
         <v>47600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>36100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>40800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>45400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>33200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>34500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>31000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>48700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>34100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>36900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>32200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>41100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>37600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>41200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>30100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>130200</v>
+      </c>
+      <c r="F60" s="3">
         <v>106900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>79000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>90600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>109800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>86600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>84400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>71700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>102400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>95100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>97500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>92900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>106500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>109700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>102700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>88900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>114100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>112100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>116700</v>
+      </c>
+      <c r="F61" s="3">
         <v>152100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>229700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>166700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>156400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>191100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>224700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>229600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>209300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>193700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>210900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>215400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>218200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>238000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>266400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>254800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>88900</v>
+      </c>
+      <c r="F62" s="3">
         <v>87900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>80200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>80000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>48800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>41000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>37100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>34700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>41100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>39000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>36100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>35900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>42400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>44700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>39900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>38300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>316600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>335800</v>
+      </c>
+      <c r="F66" s="3">
         <v>346900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>388900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>337300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>314900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>318700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>346200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>335900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>348000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>327800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>344400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>344100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>367000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>392400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>409000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>382000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>412500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>218700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>213500</v>
+      </c>
+      <c r="F72" s="3">
         <v>194000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>185800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>183000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>185700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>219300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>210400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>236000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>243900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>240000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>230900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>228300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>225700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>216600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>208600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>208600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>377700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>355800</v>
+      </c>
+      <c r="F76" s="3">
         <v>339900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>324000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>329900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>330200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>361400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>360900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>389800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>395200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>423800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>420300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>423000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>406800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>392700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>373400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>368300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>367800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F81" s="3">
         <v>10800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>5500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-30900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>11800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-24000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>6700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>10800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>10700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>10200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F83" s="3">
         <v>11100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>11900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>12900</v>
-      </c>
-      <c r="G83" s="3">
-        <v>12400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>12200</v>
       </c>
       <c r="I83" s="3">
         <v>12400</v>
       </c>
       <c r="J83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="L83" s="3">
         <v>12600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>12500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>12700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>13300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>13300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>13800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>13900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>29800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>15400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>53200</v>
+      </c>
+      <c r="F89" s="3">
         <v>45100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>6100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>66300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>29900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>20400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-20200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>56200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>26800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>13400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>8200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>33300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>30800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>15700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>3100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-9300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-7900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-6800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-7800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-7500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-17600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-16300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-9300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-6900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-6500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-7700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-6800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-25500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-16200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,10 +5329,10 @@
         <v>-2600</v>
       </c>
       <c r="F96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="G96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="H96" s="3">
         <v>-2700</v>
@@ -4876,13 +5344,13 @@
         <v>-2700</v>
       </c>
       <c r="K96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="M96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1400</v>
       </c>
       <c r="N96" s="3">
         <v>-1400</v>
@@ -4894,16 +5362,22 @@
         <v>-1400</v>
       </c>
       <c r="Q96" s="3">
-        <v>-2700</v>
+        <v>-1400</v>
       </c>
       <c r="R96" s="3">
         <v>-1400</v>
       </c>
       <c r="S96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5547,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-80900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>58500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-40700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-34400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-10700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>14600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-33800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-18200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-9500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-25000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,101 +5621,113 @@
         <v>900</v>
       </c>
       <c r="E101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>900</v>
+      </c>
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-39200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>57100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>20200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-9600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-11500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>16600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-3700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-11000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-11500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>NX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>270400</v>
+      </c>
+      <c r="E8" s="3">
         <v>230100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>255400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>212100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>187500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>196600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>240400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>238500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>218200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>196800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>244100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>239800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>214200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>191700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>232100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>229400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>405000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>195100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>208500</v>
+      </c>
+      <c r="E9" s="3">
         <v>176400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>189200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>162400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>149700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>157400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>183100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>181400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>171400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>158600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>187700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>185800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>169000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>154500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>177500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>176800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>480000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>154900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>61900</v>
+      </c>
+      <c r="E10" s="3">
         <v>53700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>66200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>49700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>37800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>39200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>57300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>57100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>46800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>56400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>54000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>45200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>54600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>52600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-75000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>40200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,117 +1096,123 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>44700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>30100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
-      </c>
-      <c r="N14" s="3">
-        <v>200</v>
       </c>
       <c r="O14" s="3">
         <v>200</v>
       </c>
       <c r="P14" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E15" s="3">
         <v>11000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12700</v>
-      </c>
-      <c r="O15" s="3">
-        <v>13300</v>
       </c>
       <c r="P15" s="3">
         <v>13300</v>
       </c>
       <c r="Q15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="R15" s="3">
         <v>13800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>13900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>29800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>15400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E17" s="3">
         <v>218300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>227600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>195500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>178600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>194600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>264100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>219400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>237600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>199300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>232400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>223000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>206400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>192300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>215900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>212000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>404300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>198900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E18" s="3">
         <v>11800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>17400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1359,291 +1392,306 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>300</v>
       </c>
       <c r="M20" s="3">
         <v>300</v>
       </c>
       <c r="N20" s="3">
+        <v>300</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E21" s="3">
         <v>23000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>39400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>21100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-11600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>31600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>24500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>21300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>13100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>30200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>31300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>31100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1600</v>
       </c>
       <c r="H22" s="3">
         <v>1600</v>
       </c>
       <c r="I22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J22" s="3">
         <v>2000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2600</v>
       </c>
       <c r="K22" s="3">
         <v>2600</v>
       </c>
       <c r="L22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>2200</v>
       </c>
       <c r="U22" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E23" s="3">
         <v>11300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-22000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>13900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E24" s="3">
         <v>3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E26" s="3">
         <v>7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-40600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>10800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E27" s="3">
         <v>7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-40600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,41 +1935,44 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E29" s="3">
         <v>500</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>19400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>9500</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>2500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>9700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>8600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>3000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>2500</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1920,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>6500</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1934,11 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2067,114 +2136,120 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-300</v>
       </c>
       <c r="M32" s="3">
         <v>-300</v>
       </c>
       <c r="N32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E33" s="3">
         <v>7900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-30900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E35" s="3">
         <v>7900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-30900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E41" s="3">
         <v>43400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>41100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>80300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>23100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>30900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2608,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E43" s="3">
         <v>82500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>88300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>84500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>66900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>64000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>82900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>82300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>80600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>71700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>84000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>80200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>76600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>62100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>79400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>78000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>79700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>62800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>80400</v>
+      </c>
+      <c r="E44" s="3">
         <v>76100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>61200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>63900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>75100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>78100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>67200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>84800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>86600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>81400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>70700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>87100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>92900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>95800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>87500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>94400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>91700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>92200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E45" s="3">
         <v>7200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>7300</v>
       </c>
       <c r="M45" s="3">
         <v>7300</v>
       </c>
       <c r="N45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O45" s="3">
         <v>8600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>8100</v>
       </c>
       <c r="S45" s="3">
         <v>8100</v>
       </c>
       <c r="T45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="U45" s="3">
         <v>7900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>234500</v>
+      </c>
+      <c r="E46" s="3">
         <v>209300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>207300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>197400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>231800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>173200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>190300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>186000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>195900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>177900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>191000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>188400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>188100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>179200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>191800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>196300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>194000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>176900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>234900</v>
+      </c>
+      <c r="E48" s="3">
         <v>235600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>235900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>236500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>229200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>233800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>193600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>190400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>197200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>198700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>201400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>205300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>209500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>213000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>211100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>214800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>213500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>196900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>239200</v>
+      </c>
+      <c r="E49" s="3">
         <v>241700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>239200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>243900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>242800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>250900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>252900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>295400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>305600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>340300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>341500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>348700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>357900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>365700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>362000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>365900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>367100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>368600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,43 +3166,46 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>9000</v>
       </c>
       <c r="G52" s="3">
         <v>9000</v>
       </c>
       <c r="H52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I52" s="3">
         <v>9300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>9200</v>
       </c>
       <c r="O52" s="3">
         <v>9200</v>
@@ -3095,22 +3214,25 @@
         <v>9200</v>
       </c>
       <c r="Q52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="R52" s="3">
         <v>9000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>715600</v>
+      </c>
+      <c r="E54" s="3">
         <v>694300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>691600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>686800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>712900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>667200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>645100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>680100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>707000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>725700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>743200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>751500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>764800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>767000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>773900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>785100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>782500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>750300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>780400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E57" s="3">
         <v>62600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>77300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>58700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>52600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>39500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>52400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>44900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>44200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>45700</v>
-      </c>
-      <c r="S57" s="3">
-        <v>41200</v>
       </c>
       <c r="T57" s="3">
         <v>41200</v>
       </c>
       <c r="U57" s="3">
+        <v>41200</v>
+      </c>
+      <c r="V57" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3356,279 +3489,294 @@
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1100</v>
       </c>
       <c r="L58" s="3">
         <v>1100</v>
       </c>
       <c r="M58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>16100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>16200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>20800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>26400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>20200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>17600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E59" s="3">
         <v>49000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>52200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>36100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>40800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>33200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>48700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>32200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>41100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>37600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>41200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>135700</v>
+      </c>
+      <c r="E60" s="3">
         <v>112200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>130200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>106900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>79000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>90600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>109800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>86600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>84400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>71700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>102400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>95100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>97500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>92900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>106500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>109700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>102700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>88900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>114100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E61" s="3">
         <v>112100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>116700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>152100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>229700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>166700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>156400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>191100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>224700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>229600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>209300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>193700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>210900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>215400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>218200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>238000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>266400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>254800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E62" s="3">
         <v>92300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>88900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>87900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>80200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>80000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>48800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>37100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>41100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>39000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>36100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>42400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>44700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>39900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>38300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>320500</v>
+      </c>
+      <c r="E66" s="3">
         <v>316600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>335800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>346900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>388900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>337300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>314900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>318700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>346200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>335900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>348000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>327800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>344400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>344100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>367000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>392400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>409000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>382000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>412500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>230600</v>
+      </c>
+      <c r="E72" s="3">
         <v>218700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>213500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>194000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>185800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>183000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>185700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>219300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>210400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>236000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>243900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>240000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>230900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>228300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>225700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>216600</v>
-      </c>
-      <c r="S72" s="3">
-        <v>208600</v>
       </c>
       <c r="T72" s="3">
         <v>208600</v>
       </c>
       <c r="U72" s="3">
+        <v>208600</v>
+      </c>
+      <c r="V72" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>395100</v>
+      </c>
+      <c r="E76" s="3">
         <v>377700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>355800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>339900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>324000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>329900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>330200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>361400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>360900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>389800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>395200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>423800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>420300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>423000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>406800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>392700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>373400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>368300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>367800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E81" s="3">
         <v>7900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-30900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E83" s="3">
         <v>11000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>13300</v>
       </c>
       <c r="P83" s="3">
         <v>13300</v>
       </c>
       <c r="Q83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="R83" s="3">
         <v>13800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>53200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>45100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>66300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>29900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>56200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>26800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>8200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>33300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>15700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,13 +5549,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E96" s="3">
         <v>-2600</v>
@@ -5335,7 +5568,7 @@
         <v>-2600</v>
       </c>
       <c r="H96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="I96" s="3">
         <v>-2700</v>
@@ -5350,10 +5583,10 @@
         <v>-2700</v>
       </c>
       <c r="M96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="N96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1400</v>
       </c>
       <c r="O96" s="3">
         <v>-1400</v>
@@ -5368,16 +5601,19 @@
         <v>-1400</v>
       </c>
       <c r="S96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T96" s="3">
         <v>-2700</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-1400</v>
       </c>
       <c r="U96" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-37700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-80900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>58500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-40700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-34400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-33800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-25000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-600</v>
       </c>
       <c r="N101" s="3">
         <v>-600</v>
       </c>
       <c r="O101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P101" s="3">
         <v>-300</v>
-      </c>
-      <c r="P101" s="3">
-        <v>200</v>
       </c>
       <c r="Q101" s="3">
         <v>200</v>
       </c>
       <c r="R101" s="3">
+        <v>200</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>57100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>20200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>16600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2300</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-3700</v>
       </c>
       <c r="P102" s="3">
         <v>-3700</v>
       </c>
       <c r="Q102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="R102" s="3">
         <v>1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>NX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>279900</v>
+      </c>
+      <c r="E8" s="3">
         <v>270400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>230100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>255400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>212100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>187500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>196600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>240400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>238500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>218200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>196800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>244100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>239800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>214200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>191700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>232100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>229400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>405000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>195100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>219900</v>
+      </c>
+      <c r="E9" s="3">
         <v>208500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>176400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>189200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>162400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>149700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>157400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>183100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>181400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>171400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>158600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>187700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>185800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>169000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>154500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>177500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>176800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>480000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>154900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E10" s="3">
         <v>61900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>53700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>66200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>49700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>39200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>57300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>57100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>46800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>56400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>54000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>45200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>37200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>54600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>52600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-75000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>40200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,120 +1119,126 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
       </c>
       <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>44700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>30100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>600</v>
-      </c>
-      <c r="O14" s="3">
-        <v>200</v>
       </c>
       <c r="P14" s="3">
         <v>200</v>
       </c>
       <c r="Q14" s="3">
+        <v>200</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E15" s="3">
         <v>10800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>11000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12700</v>
-      </c>
-      <c r="P15" s="3">
-        <v>13300</v>
       </c>
       <c r="Q15" s="3">
         <v>13300</v>
       </c>
       <c r="R15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="S15" s="3">
         <v>13800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>13900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>29800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>15400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>258300</v>
+      </c>
+      <c r="E17" s="3">
         <v>249000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>218300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>227600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>195500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>178600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>194600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>264100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>219400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>237600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>199300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>232400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>223000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>206400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>192300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>215900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>212000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>404300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>198900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E18" s="3">
         <v>21400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-23700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>17400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1395,117 +1429,123 @@
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>300</v>
       </c>
       <c r="N20" s="3">
         <v>300</v>
       </c>
       <c r="O20" s="3">
+        <v>300</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E21" s="3">
         <v>32500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>39400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>31600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>24500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>21300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>13100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>30200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>31300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>31100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>12200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1513,185 +1553,194 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1600</v>
       </c>
       <c r="I22" s="3">
         <v>1600</v>
       </c>
       <c r="J22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K22" s="3">
         <v>2000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2600</v>
       </c>
       <c r="L22" s="3">
         <v>2600</v>
       </c>
       <c r="M22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4600</v>
-      </c>
-      <c r="U22" s="3">
-        <v>2200</v>
       </c>
       <c r="V22" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E23" s="3">
         <v>21000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>13900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E24" s="3">
         <v>14300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E26" s="3">
         <v>6800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-40600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>10800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>6800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-40600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,44 +1996,47 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E29" s="3">
         <v>7800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>19400</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>9500</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>2500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>9700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>8600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>3000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>2500</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1983,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>6500</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -1997,11 +2058,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2139,117 +2209,123 @@
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-300</v>
       </c>
       <c r="N32" s="3">
         <v>-300</v>
       </c>
       <c r="O32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E33" s="3">
         <v>14600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-30900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-24000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E35" s="3">
         <v>14600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-30900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-24000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E41" s="3">
         <v>49300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>51600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>80300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>23100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>30900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>17500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2701,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E43" s="3">
         <v>96500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>82500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>88300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>84500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>66900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>64000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>82900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>82300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>80600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>71700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>84000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>80200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>76600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>62100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>79400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>78000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>79700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>62800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E44" s="3">
         <v>80400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>76100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>61200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>63900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>75100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>78100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>67200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>84800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>86600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>81400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>70700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>87100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>92900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>95800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>87500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>94400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>91700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>92200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>7300</v>
       </c>
       <c r="N45" s="3">
         <v>7300</v>
       </c>
       <c r="O45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="P45" s="3">
         <v>8600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7400</v>
-      </c>
-      <c r="S45" s="3">
-        <v>8100</v>
       </c>
       <c r="T45" s="3">
         <v>8100</v>
       </c>
       <c r="U45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="V45" s="3">
         <v>7900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>244600</v>
+      </c>
+      <c r="E46" s="3">
         <v>234500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>209300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>207300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>197400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>231800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>173200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>190300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>186000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>195900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>177900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>191000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>188400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>188100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>179200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>191800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>196300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>194000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>176900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>230800</v>
+      </c>
+      <c r="E48" s="3">
         <v>234900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>235600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>235900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>236500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>229200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>233800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>193600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>190400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>197200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>198700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>201400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>205300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>209500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>213000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>211100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>214800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>213500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>196900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>236500</v>
+      </c>
+      <c r="E49" s="3">
         <v>239200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>241700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>239200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>243900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>242800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>250900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>252900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>295400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>305600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>340300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>341500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>348700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>357900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>365700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>362000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>365900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>367100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>368600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,46 +3286,49 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E52" s="3">
         <v>7000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>9000</v>
       </c>
       <c r="H52" s="3">
         <v>9000</v>
       </c>
       <c r="I52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J52" s="3">
         <v>9300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>9200</v>
       </c>
       <c r="P52" s="3">
         <v>9200</v>
@@ -3217,22 +3337,25 @@
         <v>9200</v>
       </c>
       <c r="R52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="S52" s="3">
         <v>9000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>719200</v>
+      </c>
+      <c r="E54" s="3">
         <v>715600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>694300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>691600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>686800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>712900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>667200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>645100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>680100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>707000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>725700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>743200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>751500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>764800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>767000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>773900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>785100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>782500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>750300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>780400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,75 +3533,79 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E57" s="3">
         <v>83100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>62600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>77300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>58700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>63600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>52600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>52400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>44900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>44500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>44200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>45700</v>
-      </c>
-      <c r="T57" s="3">
-        <v>41200</v>
       </c>
       <c r="U57" s="3">
         <v>41200</v>
       </c>
       <c r="V57" s="3">
+        <v>41200</v>
+      </c>
+      <c r="W57" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
@@ -3492,291 +3626,306 @@
         <v>700</v>
       </c>
       <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
         <v>900</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1100</v>
       </c>
       <c r="M58" s="3">
         <v>1100</v>
       </c>
       <c r="N58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>16100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>16200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>20800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>21200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>26400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>20200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>17600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E59" s="3">
         <v>51900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>52200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>36100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>40800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>33200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>48700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>32200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>41100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>37600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>41200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E60" s="3">
         <v>135700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>112200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>130200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>106900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>79000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>90600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>109800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>86600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>84400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>71700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>102400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>95100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>97500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>92900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>106500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>109700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>102700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>88900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>114100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E61" s="3">
         <v>87200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>112100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>116700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>152100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>229700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>166700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>156400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>191100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>224700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>229600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>209300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>193700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>210900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>215400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>218200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>238000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>266400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>254800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E62" s="3">
         <v>97600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>92300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>88900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>87900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>80200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>80000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>48800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>39000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>36100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>35900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>42400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>44700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>39900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>38300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>313800</v>
+      </c>
+      <c r="E66" s="3">
         <v>320500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>316600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>335800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>346900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>388900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>337300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>314900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>318700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>346200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>335900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>348000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>327800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>344400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>344100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>367000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>392400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>409000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>382000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>412500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>241600</v>
+      </c>
+      <c r="E72" s="3">
         <v>230600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>218700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>213500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>194000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>185800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>183000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>185700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>219300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>210400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>236000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>243900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>240000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>230900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>228300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>225700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>216600</v>
-      </c>
-      <c r="T72" s="3">
-        <v>208600</v>
       </c>
       <c r="U72" s="3">
         <v>208600</v>
       </c>
       <c r="V72" s="3">
+        <v>208600</v>
+      </c>
+      <c r="W72" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>405400</v>
+      </c>
+      <c r="E76" s="3">
         <v>395100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>377700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>355800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>339900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>324000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>329900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>330200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>361400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>360900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>389800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>395200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>423800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>420300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>423000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>406800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>392700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>373400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>368300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>367800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E81" s="3">
         <v>14600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-30900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-24000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E83" s="3">
         <v>10800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>13300</v>
       </c>
       <c r="Q83" s="3">
         <v>13300</v>
       </c>
       <c r="R83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="S83" s="3">
         <v>13800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>29800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E89" s="3">
         <v>32400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>53200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>45100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>66300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>29900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>56200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>26800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>8200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>33300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>30800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>15700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-6800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,7 +5793,7 @@
         <v>-2700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F96" s="3">
         <v>-2600</v>
@@ -5571,7 +5805,7 @@
         <v>-2600</v>
       </c>
       <c r="I96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="J96" s="3">
         <v>-2700</v>
@@ -5586,10 +5820,10 @@
         <v>-2700</v>
       </c>
       <c r="N96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="O96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1400</v>
       </c>
       <c r="P96" s="3">
         <v>-1400</v>
@@ -5604,16 +5838,19 @@
         <v>-1400</v>
       </c>
       <c r="T96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="U96" s="3">
         <v>-2700</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-1400</v>
       </c>
       <c r="V96" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-37700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-80900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>58500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-40700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-34400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>14600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-33800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-25000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-600</v>
       </c>
       <c r="O101" s="3">
         <v>-600</v>
       </c>
       <c r="P101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>200</v>
       </c>
       <c r="R101" s="3">
         <v>200</v>
       </c>
       <c r="S101" s="3">
+        <v>200</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E102" s="3">
         <v>5800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>10500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-39200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>57100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>20200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>16600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2300</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-3700</v>
       </c>
       <c r="Q102" s="3">
         <v>-3700</v>
       </c>
       <c r="R102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="S102" s="3">
         <v>1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-11500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>NX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>291800</v>
+      </c>
+      <c r="F8" s="3">
         <v>279900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>270400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>230100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>255400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>212100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>187500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>196600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>240400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>238500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>218200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>196800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>244100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>239800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>214200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>191700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>232100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>229400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>405000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>195100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>211800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>226800</v>
+      </c>
+      <c r="F9" s="3">
         <v>219900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>208500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>176400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>189200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>162400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>149700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>157400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>183100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>181400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>171400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>158600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>187700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>185800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>169000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>154500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>177500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>176800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>480000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>154900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F10" s="3">
         <v>60000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>61900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>53700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>66200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>49700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>37800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>39200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>57300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>57100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>46800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>38200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>56400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>54000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>45200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>37200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>54600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>52600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>-75000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>40200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1122,123 +1162,135 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>44700</v>
-      </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>30100</v>
       </c>
       <c r="N14" s="3">
         <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>30100</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>1500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>2200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>1100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F15" s="3">
         <v>10700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>10800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>11000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>11400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>11100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>11900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>12900</v>
-      </c>
-      <c r="K15" s="3">
-        <v>12400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>12200</v>
       </c>
       <c r="M15" s="3">
         <v>12400</v>
       </c>
       <c r="N15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="O15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="P15" s="3">
         <v>12600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>12500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>12700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>13300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>13300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>13800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>13900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>29800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>15400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>252900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>264700</v>
+      </c>
+      <c r="F17" s="3">
         <v>258300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>249000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>218300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>227600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>195500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>178600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>194600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>264100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>219400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>237600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>199300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>232400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>223000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>206400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>192300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>215900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>212000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>404300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>198900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F18" s="3">
         <v>21600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>21400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>11800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>27800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>16600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>8900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-23700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>19100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-19400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>11700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>16800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>7800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>16200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>17400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-3800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,16 +1480,18 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1432,315 +1500,345 @@
         <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>300</v>
       </c>
       <c r="R20" s="3">
+        <v>200</v>
+      </c>
+      <c r="S20" s="3">
+        <v>300</v>
+      </c>
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>37400</v>
+      </c>
+      <c r="F21" s="3">
         <v>32400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>32500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>23000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>39400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>27400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>21100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>14900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-11600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>31600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-7000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>10400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>24500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>29700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>21300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>13100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>30200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>31300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>31100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>12200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>2600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R22" s="3">
-        <v>2400</v>
       </c>
       <c r="S22" s="3">
         <v>2500</v>
       </c>
       <c r="T22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V22" s="3">
         <v>2600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>4600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>26700</v>
+      </c>
+      <c r="F23" s="3">
         <v>21200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>21000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>11300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>27100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>15200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-26100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>16800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-22000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>8500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>14400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>5500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>13900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>14800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-5300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F24" s="3">
         <v>16400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>14300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>24300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>13800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>14600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>13600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>3600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>3200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>4600</v>
-      </c>
-      <c r="U24" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="V24" s="3">
-        <v>-1600</v>
       </c>
       <c r="W24" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F26" s="3">
         <v>4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>6800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>7400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-40600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-27000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>6700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>10800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>4100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>10700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>10200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-3700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>7400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-40600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-27000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>6700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>10800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>4100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>10700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>10200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-3700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,73 +2115,85 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F29" s="3">
         <v>8900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>7800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>19400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>9500</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>2500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>9700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>8600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>3000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>2500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>6500</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,16 +2328,22 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -2212,120 +2352,132 @@
         <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-300</v>
       </c>
       <c r="R32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F33" s="3">
         <v>13700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>14600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>22200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>10800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-30900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>11800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-24000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>6700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>10800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>4100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>4900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>10700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>10200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-3700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F35" s="3">
         <v>13700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>14600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>22200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>10800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-30900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>11800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-24000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>6700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>10800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>4100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>4900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>10700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>10200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-3700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>40100</v>
+      </c>
+      <c r="F41" s="3">
         <v>43700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>49300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>43400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>51600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>41100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>80300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>23100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>30900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>20300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>17500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>29000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>12400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>13800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>17500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>15800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>14500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>14100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,268 +2884,298 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>108300</v>
+      </c>
+      <c r="F43" s="3">
         <v>98300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>96500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>82500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>88300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>84500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>66900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>64000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>82900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>82300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>80600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>71700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>84000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>80200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>76600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>62100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>79400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>78000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>79700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>62800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>117400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>92500</v>
+      </c>
+      <c r="F44" s="3">
         <v>93500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>80400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>76100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>61200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>63900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>75100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>78100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>67200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>84800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>86600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>81400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>70700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>87100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>92900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>95800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>87500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>94400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>91700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>92200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F45" s="3">
         <v>9100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>9600</v>
       </c>
       <c r="J45" s="3">
         <v>7900</v>
       </c>
       <c r="K45" s="3">
+        <v>9600</v>
+      </c>
+      <c r="L45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="M45" s="3">
         <v>9400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>8500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>7300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>8500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>7500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>7400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>8100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>8100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>7900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>260100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>249000</v>
+      </c>
+      <c r="F46" s="3">
         <v>244600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>234500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>209300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>207300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>197400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>231800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>173200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>190300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>186000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>195900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>177900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>191000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>188400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>188100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>179200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>191800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>196300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>194000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>176900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3239,156 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>231300</v>
+      </c>
+      <c r="F48" s="3">
         <v>230800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>234900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>235600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>235900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>236500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>229200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>233800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>193600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>190400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>197200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>198700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>201400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>205300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>209500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>213000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>211100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>214800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>213500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>196900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>226500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>231600</v>
+      </c>
+      <c r="F49" s="3">
         <v>236500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>239200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>241700</v>
       </c>
       <c r="G49" s="3">
         <v>239200</v>
       </c>
       <c r="H49" s="3">
+        <v>241700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>239200</v>
+      </c>
+      <c r="J49" s="3">
         <v>243900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>242800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>250900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>252900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>295400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>305600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>340300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>341500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>348700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>357900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>365700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>362000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>365900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>367100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>368600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3523,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F52" s="3">
         <v>7300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>9100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>9000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>9000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>9300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>8200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>8400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>9300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>9200</v>
       </c>
       <c r="R52" s="3">
         <v>9200</v>
       </c>
       <c r="S52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="T52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="U52" s="3">
         <v>9000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>8000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>7800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>7900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>718300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>717300</v>
+      </c>
+      <c r="F54" s="3">
         <v>719200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>715600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>694300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>691600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>686800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>712900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>667200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>645100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>680100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>707000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>725700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>743200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>751500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>764800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>767000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>773900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>785100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>782500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>750300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>780400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3794,81 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>86800</v>
+      </c>
+      <c r="F57" s="3">
         <v>79200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>83100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>62600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>77300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>58700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>42200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>49100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>63600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>52600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>48700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>39500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>52400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>44900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>44500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>39900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>44200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>45700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>41200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>41200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,10 +3876,10 @@
         <v>800</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G58" s="3">
         <v>700</v>
@@ -3629,303 +3897,333 @@
         <v>700</v>
       </c>
       <c r="L58" s="3">
+        <v>700</v>
+      </c>
+      <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>16100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>16200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>20800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>21200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>26400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>20200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>17600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>70400</v>
+      </c>
+      <c r="F59" s="3">
         <v>62300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>51900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>49000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>52200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>47600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>36100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>40800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>45400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>33200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>34500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>31000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>48700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>34100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>36900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>32200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>41100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>37600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>41200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>30100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>158000</v>
+      </c>
+      <c r="F60" s="3">
         <v>142400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>135700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>112200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>130200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>106900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>79000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>90600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>109800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>86600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>84400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>71700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>102400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>95100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>97500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>92900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>106500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>109700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>102700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>88900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>114100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>52100</v>
+      </c>
+      <c r="F61" s="3">
         <v>72400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>87200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>112100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>116700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>152100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>229700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>166700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>156400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>191100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>224700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>229600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>209300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>193700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>210900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>215400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>218200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>238000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>266400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>254800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>87400</v>
+      </c>
+      <c r="F62" s="3">
         <v>99000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>97600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>92300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>88900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>87900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>80200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>80000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>48800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>41000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>37100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>34700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>41100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>39000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>36100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>35900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>42400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>44700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>39900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>38300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>293800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>297500</v>
+      </c>
+      <c r="F66" s="3">
         <v>313800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>320500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>316600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>335800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>346900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>388900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>337300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>314900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>318700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>346200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>335900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>348000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>327800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>344400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>344100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>367000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>392400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>409000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>382000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>412500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>268400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>259700</v>
+      </c>
+      <c r="F72" s="3">
         <v>241600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>230600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>218700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>213500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>194000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>185800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>183000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>185700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>219300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>210400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>236000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>243900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>240000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>230900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>228300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>225700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>216600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>208600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>208600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>424500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>419800</v>
+      </c>
+      <c r="F76" s="3">
         <v>405400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>395100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>377700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>355800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>339900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>324000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>329900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>330200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>361400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>360900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>389800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>395200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>423800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>420300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>423000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>406800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>392700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>373400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>368300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>367800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F81" s="3">
         <v>13700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>14600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>22200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>10800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-30900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>11800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-24000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>6700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>10800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>4100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>4900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>10700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>10200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-3700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5415,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F83" s="3">
         <v>10700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>10800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>11000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>11400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>11100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>11900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>12900</v>
-      </c>
-      <c r="K83" s="3">
-        <v>12400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>12200</v>
       </c>
       <c r="M83" s="3">
         <v>12400</v>
       </c>
       <c r="N83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="O83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="P83" s="3">
         <v>12600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>12500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>12700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>13300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>13300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>13800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>13900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>29800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>15400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F89" s="3">
         <v>18500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>32400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>53200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>45100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>6100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>66300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>29900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>20400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-20200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>56200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>26800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>13400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>8200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>33300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>30800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>15700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>3100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5939,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-4400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-9300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-6800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-7400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-7800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-7500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-9500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-17600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-16300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-4700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-7000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-9300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-6500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-6200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-7300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-7700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-6800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-8900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-25500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-16200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,22 +6250,24 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-2700</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-2600</v>
       </c>
       <c r="H96" s="3">
         <v>-2600</v>
@@ -5808,10 +6276,10 @@
         <v>-2600</v>
       </c>
       <c r="J96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="K96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="L96" s="3">
         <v>-2700</v>
@@ -5823,13 +6291,13 @@
         <v>-2700</v>
       </c>
       <c r="O96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1400</v>
       </c>
       <c r="R96" s="3">
         <v>-1400</v>
@@ -5841,16 +6309,22 @@
         <v>-1400</v>
       </c>
       <c r="U96" s="3">
-        <v>-2700</v>
+        <v>-1400</v>
       </c>
       <c r="V96" s="3">
         <v>-1400</v>
       </c>
       <c r="W96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6530,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-19200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-23700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-37700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-80900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>58500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-40700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-34400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-10700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>14600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-33800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-9500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-4400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-25000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-19300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>900</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-300</v>
       </c>
       <c r="H101" s="3">
         <v>900</v>
       </c>
       <c r="I101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-5600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-8200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>10500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-39200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>57100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-7800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>20200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-9600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-11500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>16600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-3700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-3700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-11000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-11500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>NX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>322900</v>
+      </c>
+      <c r="E8" s="3">
         <v>267000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>291800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>279900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>270400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>230100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>255400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>212100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>187500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>196600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>240400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>238500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>218200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>196800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>244100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>239800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>214200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>191700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>232100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>229400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>405000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>195100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>249700</v>
+      </c>
+      <c r="E9" s="3">
         <v>211800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>226800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>219900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>208500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>176400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>189200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>162400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>149700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>157400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>183100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>181400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>171400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>158600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>187700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>185800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>169000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>154500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>177500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>176800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>480000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>154900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E10" s="3">
         <v>55200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>65000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>60000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>61900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>53700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>66200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>49700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>39200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>57300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>57100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>46800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>54000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>45200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>37200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>54600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>52600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-75000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>40200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1168,129 +1187,135 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>44700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>30100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>600</v>
-      </c>
-      <c r="R14" s="3">
-        <v>200</v>
       </c>
       <c r="S14" s="3">
         <v>200</v>
       </c>
       <c r="T14" s="3">
+        <v>200</v>
+      </c>
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E15" s="3">
         <v>10300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12700</v>
-      </c>
-      <c r="S15" s="3">
-        <v>13300</v>
       </c>
       <c r="T15" s="3">
         <v>13300</v>
       </c>
       <c r="U15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="V15" s="3">
         <v>13800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>13900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>29800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>15400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>288300</v>
+      </c>
+      <c r="E17" s="3">
         <v>252900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>264700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>258300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>249000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>218300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>227600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>195500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>178600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>194600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>264100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>219400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>237600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>199300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>232400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>223000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>206400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>192300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>215900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>212000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>404300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>198900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E18" s="3">
         <v>14100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>27800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-23700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>16200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>17400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,19 +1514,20 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1506,339 +1539,354 @@
         <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>300</v>
       </c>
       <c r="Q20" s="3">
         <v>300</v>
       </c>
       <c r="R20" s="3">
+        <v>300</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E21" s="3">
         <v>24400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>37400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>32400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>32500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>23000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>39400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>21100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>31600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>10400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>24500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>29700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>21300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>13100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>30200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>31300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>31100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>12200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
       </c>
       <c r="F22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3">
         <v>600</v>
       </c>
       <c r="H22" s="3">
+        <v>600</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1600</v>
       </c>
       <c r="L22" s="3">
         <v>1600</v>
       </c>
       <c r="M22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N22" s="3">
         <v>2000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>2600</v>
       </c>
       <c r="O22" s="3">
         <v>2600</v>
       </c>
       <c r="P22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4600</v>
-      </c>
-      <c r="X22" s="3">
-        <v>2200</v>
       </c>
       <c r="Y22" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E23" s="3">
         <v>13700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>27100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>14400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>13900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>14800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E24" s="3">
         <v>2200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>24300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E26" s="3">
         <v>11400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-40600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E27" s="3">
         <v>11400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-40600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-27000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,53 +2178,56 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>9800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>8900</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>7800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>19400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>9500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>2500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>9700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>8600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>3000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>2500</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2175,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>6500</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2189,11 +2249,14 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,19 +2400,22 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -2358,126 +2427,132 @@
         <v>-200</v>
       </c>
       <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-300</v>
       </c>
       <c r="Q32" s="3">
         <v>-300</v>
       </c>
       <c r="R32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E33" s="3">
         <v>11200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>20900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>22200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5500</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-30900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-24000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E35" s="3">
         <v>11200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>20900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>22200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5500</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-30900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-24000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E41" s="3">
         <v>31700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>49300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>43400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>51600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>80300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>30900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>20300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>17500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>17500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>14500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>14100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,292 +2979,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E43" s="3">
         <v>99400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>108300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>98300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>96500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>82500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>88300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>84500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>66900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>64000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>82900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>82300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>80600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>71700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>84000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>80200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>76600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>62100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>79400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>78000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>79700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>62800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E44" s="3">
         <v>117400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>92500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>93500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>80400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>76100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>61200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>63900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>75100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>78100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>67200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>84800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>86600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>81400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>70700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>87100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>92900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>95800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>87500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>94400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>91700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>92200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E45" s="3">
         <v>11600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>7300</v>
       </c>
       <c r="Q45" s="3">
         <v>7300</v>
       </c>
       <c r="R45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S45" s="3">
         <v>8600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7400</v>
-      </c>
-      <c r="V45" s="3">
-        <v>8100</v>
       </c>
       <c r="W45" s="3">
         <v>8100</v>
       </c>
       <c r="X45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>7900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>298900</v>
+      </c>
+      <c r="E46" s="3">
         <v>260100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>249000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>244600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>234500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>209300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>207300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>197400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>231800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>173200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>190300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>186000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>195900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>177900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>191000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>188400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>188100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>179200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>191800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>196300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>194000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>176900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,150 +3349,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>218900</v>
+      </c>
+      <c r="E48" s="3">
         <v>226000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>231300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>230800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>234900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>235600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>235900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>236500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>229200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>233800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>193600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>190400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>197200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>198700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>201400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>205300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>209500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>213000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>211100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>214800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>213500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>196900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>216800</v>
+      </c>
+      <c r="E49" s="3">
         <v>226500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>231600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>236500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>239200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>241700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>239200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>243900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>242800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>250900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>252900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>295400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>305600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>340300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>341500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>348700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>357900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>365700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>362000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>365900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>367100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>368600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,55 +3645,58 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E52" s="3">
         <v>5700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>9000</v>
       </c>
       <c r="K52" s="3">
         <v>9000</v>
       </c>
       <c r="L52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M52" s="3">
         <v>9300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9300</v>
-      </c>
-      <c r="R52" s="3">
-        <v>9200</v>
       </c>
       <c r="S52" s="3">
         <v>9200</v>
@@ -3586,22 +3705,25 @@
         <v>9200</v>
       </c>
       <c r="U52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="V52" s="3">
         <v>9000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>740500</v>
+      </c>
+      <c r="E54" s="3">
         <v>718300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>717300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>719200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>715600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>694300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>691600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>686800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>712900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>667200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>645100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>680100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>707000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>725700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>743200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>751500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>764800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>767000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>773900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>785100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>782500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>750300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>780400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E57" s="3">
         <v>75500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>86800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>79200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>83100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>62600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>77300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>58700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>42200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>49100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>63600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>52600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>48700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>52400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>44900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>44500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>44200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>45700</v>
-      </c>
-      <c r="W57" s="3">
-        <v>41200</v>
       </c>
       <c r="X57" s="3">
         <v>41200</v>
       </c>
       <c r="Y57" s="3">
+        <v>41200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3882,7 +4015,7 @@
         <v>800</v>
       </c>
       <c r="G58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
@@ -3903,327 +4036,342 @@
         <v>700</v>
       </c>
       <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
         <v>900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1100</v>
       </c>
       <c r="P58" s="3">
         <v>1100</v>
       </c>
       <c r="Q58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>16100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>16200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>20800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>21200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>26400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>20200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>17600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E59" s="3">
         <v>55300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>62300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>52200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>47600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>36100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>45400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>33200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>31000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>48700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>36900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>32200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>41100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>37600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>41200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>30100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E60" s="3">
         <v>131600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>158000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>142400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>135700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>112200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>130200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>106900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>90600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>109800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>86600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>84400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>71700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>102400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>95100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>97500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>92900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>106500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>109700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>102700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>88900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>114100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E61" s="3">
         <v>76700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>52100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>72400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>87200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>112100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>116700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>152100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>229700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>166700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>156400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>191100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>224700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>229600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>209300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>193700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>210900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>215400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>218200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>238000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>266400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>254800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E62" s="3">
         <v>85500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>87400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>99000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>97600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>92300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>88900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>87900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>80200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>80000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>48800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>34700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>41100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>39000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>36100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>42400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>44700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>39900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>38300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>304300</v>
+      </c>
+      <c r="E66" s="3">
         <v>293800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>297500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>313800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>320500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>316600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>335800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>346900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>388900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>337300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>314900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>318700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>346200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>335900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>348000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>327800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>344400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>344100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>367000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>392400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>409000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>382000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>412500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>292200</v>
+      </c>
+      <c r="E72" s="3">
         <v>268400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>259700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>241600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>230600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>218700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>213500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>194000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>185800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>183000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>185700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>219300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>210400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>236000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>243900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>240000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>230900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>228300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>225700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>216600</v>
-      </c>
-      <c r="W72" s="3">
-        <v>208600</v>
       </c>
       <c r="X72" s="3">
         <v>208600</v>
       </c>
       <c r="Y72" s="3">
+        <v>208600</v>
+      </c>
+      <c r="Z72" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>436200</v>
+      </c>
+      <c r="E76" s="3">
         <v>424500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>419800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>405400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>395100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>377700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>355800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>339900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>324000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>329900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>330200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>361400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>360900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>389800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>395200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>423800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>420300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>423000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>406800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>392700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>373400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>368300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>367800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E81" s="3">
         <v>11200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>20900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>22200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5500</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-30900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-24000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E83" s="3">
         <v>10300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>13300</v>
       </c>
       <c r="T83" s="3">
         <v>13300</v>
       </c>
       <c r="U83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="V83" s="3">
         <v>13800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>29800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>53200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>45100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>66300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>29900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>56200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>26800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>33300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>30800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>15700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-9500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-16300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-6800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-25500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,25 +6484,26 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-2700</v>
       </c>
       <c r="G96" s="3">
         <v>-2700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="I96" s="3">
         <v>-2600</v>
@@ -6282,7 +6515,7 @@
         <v>-2600</v>
       </c>
       <c r="L96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="M96" s="3">
         <v>-2700</v>
@@ -6297,10 +6530,10 @@
         <v>-2700</v>
       </c>
       <c r="Q96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="R96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1400</v>
       </c>
       <c r="S96" s="3">
         <v>-1400</v>
@@ -6315,16 +6548,19 @@
         <v>-1400</v>
       </c>
       <c r="W96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X96" s="3">
         <v>-2700</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-1400</v>
       </c>
       <c r="Y96" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E100" s="3">
         <v>20900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-28400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-19200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-23700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-37700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-80900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>58500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-40700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-34400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>14600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-33800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-25000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-19300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-600</v>
       </c>
       <c r="R101" s="3">
         <v>-600</v>
       </c>
       <c r="S101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T101" s="3">
         <v>-300</v>
-      </c>
-      <c r="T101" s="3">
-        <v>200</v>
       </c>
       <c r="U101" s="3">
         <v>200</v>
       </c>
       <c r="V101" s="3">
+        <v>200</v>
+      </c>
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-39200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>57100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>20200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2300</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-3700</v>
       </c>
       <c r="T102" s="3">
         <v>-3700</v>
       </c>
       <c r="U102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="V102" s="3">
         <v>1700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-11000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>NX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E8" s="3">
         <v>322900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>267000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>291800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>279900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>270400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>230100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>255400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>212100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>187500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>196600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>240400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>238500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>218200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>196800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>244100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>239800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>214200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>191700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>232100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>229400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>405000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>195100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>251400</v>
+      </c>
+      <c r="E9" s="3">
         <v>249700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>211800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>226800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>219900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>208500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>176400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>189200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>162400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>149700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>157400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>183100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>181400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>171400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>158600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>187700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>185800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>169000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>154500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>177500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>176800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>480000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>154900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E10" s="3">
         <v>73200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>65000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>60000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>61900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>53700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>66200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>49700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>39200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>57300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>57100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>46800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>56400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>54000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>45200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>37200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>54600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>52600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-75000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>40200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1190,132 +1210,138 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>100</v>
       </c>
       <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>44700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>30100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>600</v>
-      </c>
-      <c r="S14" s="3">
-        <v>200</v>
       </c>
       <c r="T14" s="3">
         <v>200</v>
       </c>
       <c r="U14" s="3">
+        <v>200</v>
+      </c>
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E15" s="3">
         <v>10600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>12700</v>
-      </c>
-      <c r="T15" s="3">
-        <v>13300</v>
       </c>
       <c r="U15" s="3">
         <v>13300</v>
       </c>
       <c r="V15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="W15" s="3">
         <v>13800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>13900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>29800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>15400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E17" s="3">
         <v>288300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>252900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>264700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>258300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>249000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>218300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>227600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>195500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>178600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>194600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>264100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>219400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>237600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>199300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>232400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>223000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>206400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>192300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>215900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>212000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>404300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>198900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E18" s="3">
         <v>34600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>27800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>8900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-23700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>19100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>16200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>17400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,13 +1558,13 @@
         <v>400</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1542,351 +1576,366 @@
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>300</v>
       </c>
       <c r="R20" s="3">
         <v>300</v>
       </c>
       <c r="S20" s="3">
+        <v>300</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E21" s="3">
         <v>45600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>24400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>37400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>32400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>32500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>23000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>39400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>27400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>21100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>31600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>24500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>29700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>21300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>13100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>30200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>31300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>31100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>12200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>500</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>600</v>
       </c>
       <c r="I22" s="3">
+        <v>600</v>
+      </c>
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1600</v>
       </c>
       <c r="M22" s="3">
         <v>1600</v>
       </c>
       <c r="N22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O22" s="3">
         <v>2000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2600</v>
       </c>
       <c r="P22" s="3">
         <v>2600</v>
       </c>
       <c r="Q22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>2400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>2500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>2600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4600</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>2200</v>
       </c>
       <c r="Z22" s="3">
         <v>2200</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E23" s="3">
         <v>34400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>27100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>14400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>5500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>13900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>14800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E24" s="3">
         <v>10800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>24300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E26" s="3">
         <v>23600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-40600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>10200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E27" s="3">
         <v>23600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-40600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,56 +2239,59 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E29" s="3">
         <v>2900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>9800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>8900</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>7800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>19400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>9500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>2500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>9700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>8600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>3000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>2500</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2238,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>6500</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2252,11 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,13 +2482,13 @@
         <v>-400</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -2430,129 +2500,135 @@
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-300</v>
       </c>
       <c r="R32" s="3">
         <v>-300</v>
       </c>
       <c r="S32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E33" s="3">
         <v>26500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>22200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5500</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-30900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E35" s="3">
         <v>26500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>22200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5500</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-30900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E41" s="3">
         <v>38900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>40100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>51600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>80300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>30900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>17500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>17500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>14500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>14100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,304 +3072,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E43" s="3">
         <v>118200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>99400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>108300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>98300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>96500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>82500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>88300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>84500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>66900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>64000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>82900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>82300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>80600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>71700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>84000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>80200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>76600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>62100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>79400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>78000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>79700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>62800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E44" s="3">
         <v>130400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>117400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>92500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>93500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>80400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>76100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>61200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>63900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>75100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>78100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>67200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>84800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>86600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>81400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>70700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>87100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>92900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>95800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>87500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>94400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>91700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>92200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E45" s="3">
         <v>11400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8500</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>7300</v>
       </c>
       <c r="R45" s="3">
         <v>7300</v>
       </c>
       <c r="S45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="T45" s="3">
         <v>8600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>8500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7400</v>
-      </c>
-      <c r="W45" s="3">
-        <v>8100</v>
       </c>
       <c r="X45" s="3">
         <v>8100</v>
       </c>
       <c r="Y45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="Z45" s="3">
         <v>7900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>306400</v>
+      </c>
+      <c r="E46" s="3">
         <v>298900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>260100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>249000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>244600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>234500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>209300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>207300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>197400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>231800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>173200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>190300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>186000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>195900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>177900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>191000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>188400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>188100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>179200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>191800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>196300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>194000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>176900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>221100</v>
+      </c>
+      <c r="E48" s="3">
         <v>218900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>226000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>231300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>230800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>234900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>235600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>235900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>236500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>229200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>233800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>193600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>190400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>197200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>198700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>201400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>205300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>209500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>213000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>211100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>214800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>213500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>196900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>210900</v>
+      </c>
+      <c r="E49" s="3">
         <v>216800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>226500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>231600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>236500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>239200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>241700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>239200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>243900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>242800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>250900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>252900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>295400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>305600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>340300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>341500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>348700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>357900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>365700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>362000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>365900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>367100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>368600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,58 +3765,61 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E52" s="3">
         <v>5800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>9000</v>
       </c>
       <c r="L52" s="3">
         <v>9000</v>
       </c>
       <c r="M52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="N52" s="3">
         <v>9300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9300</v>
-      </c>
-      <c r="S52" s="3">
-        <v>9200</v>
       </c>
       <c r="T52" s="3">
         <v>9200</v>
@@ -3708,22 +3828,25 @@
         <v>9200</v>
       </c>
       <c r="V52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="W52" s="3">
         <v>9000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>743600</v>
+      </c>
+      <c r="E54" s="3">
         <v>740500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>718300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>717300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>719200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>715600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>694300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>691600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>686800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>712900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>667200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>645100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>680100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>707000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>725700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>743200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>751500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>764800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>767000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>773900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>785100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>782500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>750300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>780400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,87 +4056,91 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E57" s="3">
         <v>89000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>75500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>86800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>79200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>83100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>62600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>77300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>58700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>42200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>49100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>63600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>52600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>52400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>44900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>44500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>39900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>44200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>45700</v>
-      </c>
-      <c r="X57" s="3">
-        <v>41200</v>
       </c>
       <c r="Y57" s="3">
         <v>41200</v>
       </c>
       <c r="Z57" s="3">
+        <v>41200</v>
+      </c>
+      <c r="AA57" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>800</v>
@@ -4018,7 +4152,7 @@
         <v>800</v>
       </c>
       <c r="H58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
@@ -4039,339 +4173,354 @@
         <v>700</v>
       </c>
       <c r="O58" s="3">
+        <v>700</v>
+      </c>
+      <c r="P58" s="3">
         <v>900</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1100</v>
       </c>
       <c r="Q58" s="3">
         <v>1100</v>
       </c>
       <c r="R58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>16100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>16200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>20800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>21200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>26400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>20200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>17600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E59" s="3">
         <v>56800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>55300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>70400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>62300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>51900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>52200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>36100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>45400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>33200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>31000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>48700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>36900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>32200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>41100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>37600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>41200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>30100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>158700</v>
+      </c>
+      <c r="E60" s="3">
         <v>146600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>131600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>158000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>142400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>135700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>112200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>130200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>106900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>90600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>109800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>86600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>84400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>71700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>102400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>95100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>97500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>92900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>106500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>109700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>102700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>88900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>114100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E61" s="3">
         <v>75700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>76700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>52100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>72400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>87200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>112100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>116700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>152100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>229700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>166700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>156400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>191100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>224700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>229600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>209300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>193700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>210900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>215400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>218200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>238000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>266400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>254800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E62" s="3">
         <v>82000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>85500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>87400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>99000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>97600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>92300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>88900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>87900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>80200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>48800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>41100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>39000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>36100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>35900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>42400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>44700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>39900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>38300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>293500</v>
+      </c>
+      <c r="E66" s="3">
         <v>304300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>293800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>297500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>313800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>320500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>316600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>335800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>346900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>388900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>337300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>314900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>318700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>346200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>335900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>348000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>327800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>344400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>344100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>367000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>392400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>409000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>382000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>412500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>315500</v>
+      </c>
+      <c r="E72" s="3">
         <v>292200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>268400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>259700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>241600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>230600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>218700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>213500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>194000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>185800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>183000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>185700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>219300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>210400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>236000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>243900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>240000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>230900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>228300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>225700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>216600</v>
-      </c>
-      <c r="X72" s="3">
-        <v>208600</v>
       </c>
       <c r="Y72" s="3">
         <v>208600</v>
       </c>
       <c r="Z72" s="3">
+        <v>208600</v>
+      </c>
+      <c r="AA72" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>450100</v>
+      </c>
+      <c r="E76" s="3">
         <v>436200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>424500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>419800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>405400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>395100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>377700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>355800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>339900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>324000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>329900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>330200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>361400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>360900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>389800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>395200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>423800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>420300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>423000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>406800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>392700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>373400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>368300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>367800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E81" s="3">
         <v>26500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>22200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5500</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-30900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E83" s="3">
         <v>10600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>10300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>13300</v>
       </c>
       <c r="U83" s="3">
         <v>13300</v>
       </c>
       <c r="V83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="W83" s="3">
         <v>13800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>29800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E89" s="3">
         <v>19800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>32400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>53200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>45100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>66300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>29900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-20200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>56200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>26800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>33300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>30800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>15700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-16300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-6200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-6800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-25500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6494,19 +6728,19 @@
         <v>-2700</v>
       </c>
       <c r="E96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-2700</v>
       </c>
       <c r="H96" s="3">
         <v>-2700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="J96" s="3">
         <v>-2600</v>
@@ -6518,7 +6752,7 @@
         <v>-2600</v>
       </c>
       <c r="M96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="N96" s="3">
         <v>-2700</v>
@@ -6533,10 +6767,10 @@
         <v>-2700</v>
       </c>
       <c r="R96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="S96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-1400</v>
       </c>
       <c r="T96" s="3">
         <v>-1400</v>
@@ -6551,16 +6785,19 @@
         <v>-1400</v>
       </c>
       <c r="X96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-2700</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-1400</v>
       </c>
       <c r="Z96" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>20900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-28400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-37700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-80900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>58500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-40700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-34400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>14600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-33800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-25000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-19300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-600</v>
       </c>
       <c r="S101" s="3">
         <v>-600</v>
       </c>
       <c r="T101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U101" s="3">
         <v>-300</v>
-      </c>
-      <c r="U101" s="3">
-        <v>200</v>
       </c>
       <c r="V101" s="3">
         <v>200</v>
       </c>
       <c r="W101" s="3">
+        <v>200</v>
+      </c>
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-200</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E102" s="3">
         <v>7200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-8300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>57100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2300</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-3700</v>
       </c>
       <c r="U102" s="3">
         <v>-3700</v>
       </c>
       <c r="V102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="W102" s="3">
         <v>1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>NX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,372 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>261900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>307500</v>
+      </c>
+      <c r="F8" s="3">
         <v>324000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>322900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>267000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>291800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>279900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>270400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>230100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>255400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>212100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>187500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>196600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>240400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>238500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>218200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>196800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>244100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>239800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>214200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>191700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>232100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>229400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>405000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>195100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>210100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>240100</v>
+      </c>
+      <c r="F9" s="3">
         <v>251400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>249700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>211800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>226800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>219900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>208500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>176400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>189200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>162400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>149700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>157400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>183100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>181400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>171400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>158600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>187700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>185800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>169000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>154500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>177500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>176800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>480000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>154900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>67400</v>
+      </c>
+      <c r="F10" s="3">
         <v>72600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>73200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>55200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>65000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>60000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>61900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>53700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>66200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>49700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>37800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>39200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>57300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>57100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>46800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>38200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>56400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>54000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>45200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>37200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>54600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>52600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>-75000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>40200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,13 +1220,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1213,135 +1253,147 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>44700</v>
-      </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>30100</v>
       </c>
       <c r="R14" s="3">
         <v>100</v>
       </c>
       <c r="S14" s="3">
+        <v>30100</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
         <v>600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>1500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>2200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>1100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F15" s="3">
         <v>9700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>10600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>10300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>10200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>10700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>10800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>11000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>11400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>11100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>11900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>12900</v>
-      </c>
-      <c r="O15" s="3">
-        <v>12400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>12200</v>
       </c>
       <c r="Q15" s="3">
         <v>12400</v>
       </c>
       <c r="R15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="S15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="T15" s="3">
         <v>12600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>12500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>12700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>13300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>13300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>13800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>13900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>29800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>15400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>257500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>279000</v>
+      </c>
+      <c r="F17" s="3">
         <v>290000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>288300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>252900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>264700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>258300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>249000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>218300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>227600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>195500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>178600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>194600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>264100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>219400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>237600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>199300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>232400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>223000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>206400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>192300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>215900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>212000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>404300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>198900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F18" s="3">
         <v>34000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>34600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>14100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>27100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>21600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>21400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>11800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>27800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>16600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>8900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-23700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>19100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-19400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>11700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>16800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>7800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>16200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>17400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-3800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,28 +1615,30 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
@@ -1579,363 +1647,393 @@
         <v>200</v>
       </c>
       <c r="L20" s="3">
+        <v>200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
-      </c>
-      <c r="S20" s="3">
-        <v>300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>300</v>
       </c>
       <c r="V20" s="3">
+        <v>200</v>
+      </c>
+      <c r="W20" s="3">
+        <v>300</v>
+      </c>
+      <c r="X20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F21" s="3">
         <v>44200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>45600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>24400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>37400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>32400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>32500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>23000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>39400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>27400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>21100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>14900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-11600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>31600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-7000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>10400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>24500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>29700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>21300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>13100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>30200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>31300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>31100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>12200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>700</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>2600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>3500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2600</v>
-      </c>
-      <c r="U22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="V22" s="3">
-        <v>2400</v>
       </c>
       <c r="W22" s="3">
         <v>2500</v>
       </c>
       <c r="X22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Z22" s="3">
         <v>2600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>4600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>2200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F23" s="3">
         <v>33700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>34400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>13700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>26700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>21200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>21000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>27100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>15200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-26100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>16800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-22000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>8500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>14400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>5500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>13900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>14800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F24" s="3">
         <v>21900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>10800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>15600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>16400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>14300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>24300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>13800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>14600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>13600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>5000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>1500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>3600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>3200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>4600</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>-1600</v>
       </c>
       <c r="AA24" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F26" s="3">
         <v>11800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>23600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>11400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>11100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>6800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>7400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>5500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-40600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-27000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-6100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>6700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>10800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>4100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>10700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>10200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F27" s="3">
         <v>11800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>23600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>11400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>11100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>6800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>7400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>5500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-40600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-27000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-6100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>6700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>10800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>4100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>10700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>10200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,85 +2358,97 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F29" s="3">
         <v>14100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>2900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>9800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>8900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>7800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>19400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>9500</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>2500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>9700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>8600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>3000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>2500</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>6500</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,28 +2607,34 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
@@ -2503,132 +2643,144 @@
         <v>-200</v>
       </c>
       <c r="L32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>-300</v>
       </c>
       <c r="V32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F33" s="3">
         <v>25900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>26500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>11200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>20900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>13700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>14600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>22200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>10800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>5500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-30900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>11800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-24000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>6700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>10800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>4100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>4900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>10700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>10200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F35" s="3">
         <v>25900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>26500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>11200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>20900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>13700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>14600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>22200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>10800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>5500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-30900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>11800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-24000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>6700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>10800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>4100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>4900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>10700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>10200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3093,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>55100</v>
+      </c>
+      <c r="F41" s="3">
         <v>50000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>38900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>31700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>40100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>43700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>49300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>43400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>51600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>41100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>80300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>23100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>30900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>10700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>20300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>17500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>29000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>12400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>10100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>13800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>17500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>15800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>14500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>14100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,316 +3255,346 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F43" s="3">
         <v>109500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>118200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>99400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>108300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>98300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>96500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>82500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>88300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>84500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>66900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>64000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>82900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>82300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>80600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>71700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>84000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>80200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>76600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>62100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>79400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>78000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>79700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>62800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>120900</v>
+      </c>
+      <c r="F44" s="3">
         <v>138200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>130400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>117400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>92500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>93500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>80400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>76100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>61200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>63900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>75100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>78100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>67200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>84800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>86600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>81400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>70700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>87100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>92900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>95800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>87500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>94400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>91700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>92200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E45" s="3">
         <v>8700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G45" s="3">
         <v>11400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>11600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>9100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>7200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>7900</v>
-      </c>
-      <c r="M45" s="3">
-        <v>9600</v>
       </c>
       <c r="N45" s="3">
         <v>7900</v>
       </c>
       <c r="O45" s="3">
+        <v>9600</v>
+      </c>
+      <c r="P45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="Q45" s="3">
         <v>9400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>8500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>7300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>7300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>8600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>8500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>7500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>7400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>8100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>8100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>7900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>266600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>280700</v>
+      </c>
+      <c r="F46" s="3">
         <v>306400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>298900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>260100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>249000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>244600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>234500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>209300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>207300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>197400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>231800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>173200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>190300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>186000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>195900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>177900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>191000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>188400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>188100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>179200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>191800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>196300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>194000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>176900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,162 +3670,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>236400</v>
+      </c>
+      <c r="F48" s="3">
         <v>221100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>218900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>226000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>231300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>230800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>234900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>235600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>235900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>236500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>229200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>233800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>193600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>190400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>197200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>198700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>201400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>205300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>209500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>213000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>211100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>214800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>213500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>196900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>268100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>202900</v>
+      </c>
+      <c r="F49" s="3">
         <v>210900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>216800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>226500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>231600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>236500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>239200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>241700</v>
       </c>
       <c r="K49" s="3">
         <v>239200</v>
       </c>
       <c r="L49" s="3">
+        <v>241700</v>
+      </c>
+      <c r="M49" s="3">
+        <v>239200</v>
+      </c>
+      <c r="N49" s="3">
         <v>243900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>242800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>250900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>252900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>295400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>305600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>340300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>341500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>348700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>357900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>365700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>362000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>365900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>367100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>368600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4002,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F52" s="3">
         <v>5200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>7300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>9100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>9000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>9000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>9300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>8300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>8200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>8400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>8900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>9300</v>
-      </c>
-      <c r="T52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="U52" s="3">
-        <v>9200</v>
       </c>
       <c r="V52" s="3">
         <v>9200</v>
       </c>
       <c r="W52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="X52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="Y52" s="3">
         <v>9000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>8000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>7800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>7900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>827000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>724600</v>
+      </c>
+      <c r="F54" s="3">
         <v>743600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>740500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>718300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>717300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>719200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>715600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>694300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>691600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>686800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>712900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>667200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>645100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>680100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>707000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>725700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>743200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>751500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>764800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>767000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>773900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>785100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>782500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>750300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>780400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,96 +4317,104 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>77900</v>
+      </c>
+      <c r="F57" s="3">
         <v>84500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>89000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>75500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>86800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>79200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>83100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>62600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>77300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>58700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>42200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>49100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>63600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>52600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>48700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>39500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>52400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>44900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>44500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>39900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>44200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>45700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>41200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>41200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>800</v>
-      </c>
-      <c r="F58" s="3">
-        <v>800</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
@@ -4155,10 +4423,10 @@
         <v>800</v>
       </c>
       <c r="I58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K58" s="3">
         <v>700</v>
@@ -4176,351 +4444,381 @@
         <v>700</v>
       </c>
       <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>16100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>16200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>20800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>21200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>26400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>20200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>17600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>60900</v>
+      </c>
+      <c r="F59" s="3">
         <v>73100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>56800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>55300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>70400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>62300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>51900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>49000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>52200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>47600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>36100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>40800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>45400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>33200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>34500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>31000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>48700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>34100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>36900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>32200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>41100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>37600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>41200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>30100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>139800</v>
+      </c>
+      <c r="F60" s="3">
         <v>158700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>146600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>131600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>158000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>142400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>135700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>112200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>130200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>106900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>79000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>90600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>109800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>86600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>84400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>71700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>102400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>95100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>97500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>92900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>106500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>109700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>102700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>88900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>114100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F61" s="3">
         <v>55500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>75700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>76700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>52100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>72400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>87200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>112100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>116700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>152100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>229700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>166700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>156400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>191100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>224700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>229600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>209300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>193700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>210900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>215400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>218200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>238000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>266400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>254800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>90300</v>
+      </c>
+      <c r="F62" s="3">
         <v>79300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>82000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>85500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>87400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>99000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>97600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>92300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>88900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>87900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>80200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>80000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>48800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>41000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>37100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>34700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>41100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>39000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>36100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>35900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>42400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>44700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>39900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>38300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>351300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>259800</v>
+      </c>
+      <c r="F66" s="3">
         <v>293500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>304300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>293800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>297500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>313800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>320500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>316600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>335800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>346900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>388900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>337300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>314900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>318700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>346200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>335900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>348000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>327800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>344400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>344100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>367000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>392400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>409000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>382000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>412500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>336700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>337500</v>
+      </c>
+      <c r="F72" s="3">
         <v>315500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>292200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>268400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>259700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>241600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>230600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>218700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>213500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>194000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>185800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>183000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>185700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>219300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>210400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>236000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>243900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>240000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>230900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>228300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>225700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>216600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>208600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>208600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>475700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>464800</v>
+      </c>
+      <c r="F76" s="3">
         <v>450100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>436200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>424500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>419800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>405400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>395100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>377700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>355800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>339900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>324000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>329900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>330200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>361400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>360900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>389800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>395200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>423800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>420300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>423000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>406800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>392700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>373400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>368300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>367800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>24700</v>
+      </c>
+      <c r="F81" s="3">
         <v>25900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>26500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>11200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>20900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>13700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>14600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>22200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>10800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>5500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-30900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>11800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-24000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>6700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>10800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>4100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>4900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>10700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>10200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6210,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F83" s="3">
         <v>9700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>10600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>10300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>10200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>10700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>10800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>11000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>11900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>12900</v>
-      </c>
-      <c r="O83" s="3">
-        <v>12400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>12200</v>
       </c>
       <c r="Q83" s="3">
         <v>12400</v>
       </c>
       <c r="R83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="S83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="T83" s="3">
         <v>12600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>12500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>12700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>13300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>13300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>13800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>13900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>29800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>15400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>48100</v>
+      </c>
+      <c r="F89" s="3">
         <v>51700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>19800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-21700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>31200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>18500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>32400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>53200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>45100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>6100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>66300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>29900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>20400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-20200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>56200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>26800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>13400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>8200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>33300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>30800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>15700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>3100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6822,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-8000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-4600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-7900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-6800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-6300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-5400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-5900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-7400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-7800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-7500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-17600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-16300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7067,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-99500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-6400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-4300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-7000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-9300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-6900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-6500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-6200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-5200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-5800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-7300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-7700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-6800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-25500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-16200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6731,22 +7199,22 @@
         <v>-2700</v>
       </c>
       <c r="F96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H96" s="3">
         <v>-2600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-2800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-2700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-2700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-2600</v>
       </c>
       <c r="L96" s="3">
         <v>-2600</v>
@@ -6755,10 +7223,10 @@
         <v>-2600</v>
       </c>
       <c r="N96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="O96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="P96" s="3">
         <v>-2700</v>
@@ -6770,13 +7238,13 @@
         <v>-2700</v>
       </c>
       <c r="S96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="U96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-1400</v>
       </c>
       <c r="V96" s="3">
         <v>-1400</v>
@@ -6788,16 +7256,22 @@
         <v>-1400</v>
       </c>
       <c r="Y96" s="3">
-        <v>-2700</v>
+        <v>-1400</v>
       </c>
       <c r="Z96" s="3">
         <v>-1400</v>
       </c>
       <c r="AA96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7513,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-34400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-4400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>20900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-28400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-19200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-23700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-37700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-80900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>58500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-40700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-34400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-10700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>14600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-33800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-18200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-9500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-4400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-25000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-19300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>2800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>900</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-300</v>
       </c>
       <c r="L101" s="3">
         <v>900</v>
       </c>
       <c r="M101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N101" s="3">
+        <v>900</v>
+      </c>
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-200</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F102" s="3">
         <v>11100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>7200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-8300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-8200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>10500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-39200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>57100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-7800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>20200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-11500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>16600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>2300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-3700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-3700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>1300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-6700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>NX</t>
   </si>
@@ -1955,7 +1955,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>500</v>
+        <v>3400</v>
       </c>
       <c r="E24" s="3">
         <v>14000</v>
@@ -2121,7 +2121,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1900</v>
+        <v>-1000</v>
       </c>
       <c r="E26" s="3">
         <v>14000</v>
@@ -2204,7 +2204,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1900</v>
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
         <v>14000</v>
@@ -2369,8 +2369,8 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>2900</v>
       </c>
       <c r="E29" s="3">
         <v>10700</v>

--- a/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>NX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,397 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>299600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>273500</v>
+      </c>
+      <c r="F8" s="3">
         <v>261900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>307500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>324000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>322900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>267000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>291800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>279900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>270400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>230100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>255400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>212100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>187500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>196600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>240400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>238500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>218200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>196800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>244100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>239800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>214200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>191700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>232100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>229400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>405000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>195100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>249200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>221100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>206400</v>
+      </c>
+      <c r="F9" s="3">
         <v>210100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>240100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>251400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>249700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>211800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>226800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>219900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>208500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>176400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>189200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>162400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>149700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>157400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>183100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>181400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>171400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>158600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>187700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>185800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>169000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>154500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>177500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>176800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>480000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>154900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>67100</v>
+      </c>
+      <c r="F10" s="3">
         <v>51800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>67400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>72600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>73200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>55200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>65000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>60000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>61900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>53700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>66200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>49700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>37800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>39200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>57300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>57100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>46800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>38200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>56400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>54000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>45200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>37200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>54600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>52600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-75000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>40200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>61000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,19 +1259,25 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1259,58 +1298,64 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>44700</v>
-      </c>
-      <c r="R14" s="3">
-        <v>100</v>
-      </c>
-      <c r="S14" s="3">
-        <v>30100</v>
       </c>
       <c r="T14" s="3">
         <v>100</v>
       </c>
       <c r="U14" s="3">
+        <v>30100</v>
+      </c>
+      <c r="V14" s="3">
+        <v>100</v>
+      </c>
+      <c r="W14" s="3">
         <v>600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>1500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>2200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>1100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1318,82 +1363,88 @@
         <v>10600</v>
       </c>
       <c r="E15" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G15" s="3">
         <v>9600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>9700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>10600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>10300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>10200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>10700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>10800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>11000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>11400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>11100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>11900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>12900</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>12400</v>
-      </c>
-      <c r="R15" s="3">
-        <v>12200</v>
       </c>
       <c r="S15" s="3">
         <v>12400</v>
       </c>
       <c r="T15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="U15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="V15" s="3">
         <v>12600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>12500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>12700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>13300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>13300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>13800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>13900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>29800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>15400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>262200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>244200</v>
+      </c>
+      <c r="F17" s="3">
         <v>257500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>279000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>290000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>288300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>252900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>264700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>258300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>249000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>218300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>227600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>195500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>178600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>194600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>264100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>219400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>237600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>199300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>232400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>223000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>206400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>192300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>215900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>212000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>404300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>198900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F18" s="3">
         <v>4400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>28500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>34000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>34600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>14100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>27100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>21600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>21400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>11800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>27800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>16600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>8900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-23700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>19100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-19400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>11700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>16800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>7800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>16200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>17400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-3800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,34 +1682,36 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
       </c>
       <c r="L20" s="3">
         <v>200</v>
@@ -1653,387 +1720,417 @@
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>300</v>
-      </c>
-      <c r="V20" s="3">
-        <v>200</v>
       </c>
       <c r="W20" s="3">
         <v>300</v>
       </c>
       <c r="X20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z20" s="3">
         <v>400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>39800</v>
+      </c>
+      <c r="F21" s="3">
         <v>15200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>38300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>44200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>45600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>24400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>37400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>32400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>32500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>23000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>39400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>27400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>21100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>14900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-11600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>31600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-7000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>10400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>24500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>29700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>21300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>13100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>30200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>31300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>31100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>12200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>19900</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>2600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>2600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>2400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>3500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>2600</v>
-      </c>
-      <c r="W22" s="3">
-        <v>2500</v>
-      </c>
-      <c r="X22" s="3">
-        <v>2400</v>
       </c>
       <c r="Y22" s="3">
         <v>2500</v>
       </c>
       <c r="Z22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AB22" s="3">
         <v>2600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>4600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>2200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>28000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>33700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>34400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>13700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>26700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>21200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>21000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>27100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>15200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-26100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>16800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-22000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>8500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>14400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>5500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>13900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>14800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-5300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F24" s="3">
         <v>3400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>14000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>21900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>10800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>15600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>16400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>14300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>24300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>13800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>14600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>13600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>5000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>1700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>3600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>1400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>3200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>4600</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>-1600</v>
       </c>
       <c r="AC24" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>14000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>11800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>23600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>11400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>11100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>6800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>5500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-40600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>3200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-27000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-6100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>6700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>10800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>4100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>10700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>10200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>14000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>11800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>23600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>11400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>11100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>6800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>5500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-40600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>3200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-27000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-6100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>6700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>10800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>4100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>10700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>10200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,91 +2479,103 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F29" s="3">
         <v>2900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>10700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>14100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>2900</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>9800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>8900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>7800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>19400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>9500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>2500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>9700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>8600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>3000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>2500</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>6500</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
+      <c r="AA29" s="3">
+        <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,34 +2746,40 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
       </c>
       <c r="L32" s="3">
         <v>-200</v>
@@ -2649,138 +2788,150 @@
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-200</v>
       </c>
       <c r="W32" s="3">
         <v>-300</v>
       </c>
       <c r="X32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>24700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>25900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>26500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>11200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>20900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>13700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>14600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>7900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>22200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>10800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>5500</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-30900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>11800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-24000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>6700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>10800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>4100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>4900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>10700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>10200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>24700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>25900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>26500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>11200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>20900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>13700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>14600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>7900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>22200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>10800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>5500</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-30900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>11800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-24000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>6700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>10800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>4100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>4900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>10700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>10200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3266,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>43500</v>
+      </c>
+      <c r="F41" s="3">
         <v>43100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>55100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>50000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>38900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>31700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>40100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>43700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>49300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>43400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>51600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>41100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>80300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>23100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>30900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>10700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>20300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>17500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>29000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>12400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>10100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>13800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>17500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>15800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>14500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>14100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>25500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,340 +3440,370 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>94000</v>
+      </c>
+      <c r="F43" s="3">
         <v>84700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>96000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>109500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>118200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>99400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>108300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>98300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>96500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>82500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>88300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>84500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>66900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>64000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>82900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>82300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>80600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>71700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>84000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>80200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>76600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>62100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>79400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>78000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>79700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>62800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>83600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>105400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>114000</v>
+      </c>
+      <c r="F44" s="3">
         <v>127700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>120900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>138200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>130400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>117400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>92500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>93500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>80400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>76100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>61200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>63900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>75100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>78100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>67200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>84800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>86600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>81400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>70700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>87100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>92900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>95800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>87500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>94400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>91700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>92200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>84300</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F45" s="3">
         <v>11100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>8700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>11600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>7900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>9600</v>
       </c>
       <c r="P45" s="3">
         <v>7900</v>
       </c>
       <c r="Q45" s="3">
+        <v>9600</v>
+      </c>
+      <c r="R45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="S45" s="3">
         <v>9400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>8300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>8500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>7300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>7300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>8600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>8500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>7500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>7400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>8100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>8100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>7900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>287600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>263800</v>
+      </c>
+      <c r="F46" s="3">
         <v>266600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>280700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>306400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>298900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>260100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>249000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>244600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>234500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>209300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>207300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>197400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>231800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>173200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>190300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>186000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>195900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>177900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>191000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>188400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>188100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>179200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>191800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>196300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>194000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>176900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>204000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,174 +3885,192 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>291700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>288200</v>
+      </c>
+      <c r="F48" s="3">
         <v>288000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>236400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>221100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>218900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>226000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>231300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>230800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>234900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>235600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>235900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>236500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>229200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>233800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>193600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>190400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>197200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>198700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>201400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>205300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>209500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>213000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>211100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>214800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>213500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>196900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>198500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>266200</v>
+      </c>
+      <c r="F49" s="3">
         <v>268100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>202900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>210900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>216800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>226500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>231600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>236500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>239200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>241700</v>
       </c>
       <c r="M49" s="3">
         <v>239200</v>
       </c>
       <c r="N49" s="3">
+        <v>241700</v>
+      </c>
+      <c r="O49" s="3">
+        <v>239200</v>
+      </c>
+      <c r="P49" s="3">
         <v>243900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>242800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>250900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>252900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>295400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>305600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>340300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>341500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>348700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>357900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>365700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>362000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>365900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>367100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>368600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>371200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F52" s="3">
         <v>4300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>5200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>5700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>9100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>9000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>9000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>9300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>8300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>8200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>8400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>8900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>9300</v>
-      </c>
-      <c r="V52" s="3">
-        <v>9200</v>
-      </c>
-      <c r="W52" s="3">
-        <v>9200</v>
       </c>
       <c r="X52" s="3">
         <v>9200</v>
       </c>
       <c r="Y52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="AA52" s="3">
         <v>9000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>8000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>7800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>7900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>847800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>822100</v>
+      </c>
+      <c r="F54" s="3">
         <v>827000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>724600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>743600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>740500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>718300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>717300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>719200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>715600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>694300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>691600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>686800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>712900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>667200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>645100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>680100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>707000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>725700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>743200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>751500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>764800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>767000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>773900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>785100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>782500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>750300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>780400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,108 +4578,116 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>71500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>64500</v>
+      </c>
+      <c r="F57" s="3">
         <v>63100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>77900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>84500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>89000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>75500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>86800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>79200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>83100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>62600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>77300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>58700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>42200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>49100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>63600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>52600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>48700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>39500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>52400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>44900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>44500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>39900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>44200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>45700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>41200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>41200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>800</v>
       </c>
       <c r="I58" s="3">
         <v>800</v>
@@ -4429,10 +4696,10 @@
         <v>800</v>
       </c>
       <c r="K58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
@@ -4450,375 +4717,405 @@
         <v>700</v>
       </c>
       <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>16100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>16200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>20800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>21200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>26400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>20200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>17600</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>52100</v>
+      </c>
+      <c r="F59" s="3">
         <v>54900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>60900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>73100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>56800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>55300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>70400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>62300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>51900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>49000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>52200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>47600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>36100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>40800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>45400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>33200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>34500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>31000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>48700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>34100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>36900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>32200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>41100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>37600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>41200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>30100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>55800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>135400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>118600</v>
+      </c>
+      <c r="F60" s="3">
         <v>120000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>139800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>158700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>146600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>131600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>158000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>142400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>135700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>112200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>130200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>106900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>79000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>90600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>109800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>86600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>84400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>71700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>102400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>95100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>97500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>92900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>106500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>109700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>102700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>88900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>114100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>107200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>132200</v>
+      </c>
+      <c r="F61" s="3">
         <v>151700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>29600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>55500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>75700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>76700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>52100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>72400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>87200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>112100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>116700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>152100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>229700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>166700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>156400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>191100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>224700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>229600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>209300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>193700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>210900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>215400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>218200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>238000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>266400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>254800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>259000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>78600</v>
+      </c>
+      <c r="F62" s="3">
         <v>79700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>90300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>79300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>82000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>85500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>87400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>99000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>97600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>92300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>88900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>87900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>80200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>80000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>48800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>41000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>37100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>34700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>41100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>39000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>36100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>35900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>42400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>44700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>39900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>38300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>39400</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>321900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>329400</v>
+      </c>
+      <c r="F66" s="3">
         <v>351300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>259800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>293500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>304300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>293800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>297500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>313800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>320500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>316600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>335800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>346900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>388900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>337300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>314900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>318700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>346200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>335900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>348000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>327800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>344400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>344100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>367000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>392400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>409000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>382000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>412500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>384600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>355600</v>
+      </c>
+      <c r="F72" s="3">
         <v>336700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>337500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>315500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>292200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>268400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>259700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>241600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>230600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>218700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>213500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>194000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>185800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>183000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>185700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>219300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>210400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>236000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>243900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>240000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>230900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>228300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>225700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>216600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>208600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>208600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>214000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>492700</v>
+      </c>
+      <c r="F76" s="3">
         <v>475700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>464800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>450100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>436200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>424500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>419800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>405400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>395100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>377700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>355800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>339900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>324000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>329900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>330200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>361400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>360900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>389800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>395200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>423800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>420300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>423000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>406800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>392700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>373400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>368300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>367800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>21500</v>
+      </c>
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>24700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>25900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>26500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>11200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>20900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>13700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>14600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>7900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>22200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>10800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>5500</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-30900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>11800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-24000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>6700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>10800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>4100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>4900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>10700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>10200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6221,82 +6618,88 @@
         <v>10600</v>
       </c>
       <c r="E83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G83" s="3">
         <v>9600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>9700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>10600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>10300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>10200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>10700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>10800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>11400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>11100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>11900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>12900</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>12400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>12200</v>
       </c>
       <c r="S83" s="3">
         <v>12400</v>
       </c>
       <c r="T83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="U83" s="3">
+        <v>12400</v>
+      </c>
+      <c r="V83" s="3">
         <v>12600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>12500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>12700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>13300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>13300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>13800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>13900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>29800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>15400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>35300</v>
+      </c>
+      <c r="F89" s="3">
         <v>3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>48100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>51700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>19800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-21700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>31200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>18500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>32400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>53200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>45100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>6100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>66300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>29900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>20400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-20200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>56200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>26800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>13400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>8200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>33300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>30800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>15700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>3100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>37400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-13600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-5100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-4400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-7000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-7900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-4000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-6800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-6300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-5400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-5900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-7400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-7500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-9500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-17600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-16300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-11300</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-99500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-13600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-6400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-7400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-5800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-4300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-7000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-6900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-6500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-6200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-5200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-5800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-7300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-8900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-25500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-16200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-11200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,13 +7652,15 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="E96" s="3">
         <v>-2700</v>
@@ -7205,22 +7672,22 @@
         <v>-2700</v>
       </c>
       <c r="H96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-2800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-2700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-2600</v>
       </c>
       <c r="N96" s="3">
         <v>-2600</v>
@@ -7229,10 +7696,10 @@
         <v>-2600</v>
       </c>
       <c r="P96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="Q96" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="R96" s="3">
         <v>-2700</v>
@@ -7244,13 +7711,13 @@
         <v>-2700</v>
       </c>
       <c r="U96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="V96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="W96" s="3">
         <v>-2800</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-1400</v>
       </c>
       <c r="X96" s="3">
         <v>-1400</v>
@@ -7262,16 +7729,22 @@
         <v>-1400</v>
       </c>
       <c r="AA96" s="3">
-        <v>-2700</v>
+        <v>-1400</v>
       </c>
       <c r="AB96" s="3">
         <v>-1400</v>
       </c>
       <c r="AC96" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-1400</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-1400</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="F100" s="3">
         <v>83300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-27900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-34400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-4400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>20900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-28400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-19200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-23700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-37700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-80900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>58500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>5000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-40700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-34400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-10700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>14600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-33800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-18200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-9500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-25000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-19300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>2800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-33200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>900</v>
+      </c>
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>900</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-300</v>
       </c>
       <c r="N101" s="3">
         <v>900</v>
       </c>
       <c r="O101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P101" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-200</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-12000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>5100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>11100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>7200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-8300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-3600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-5600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-8200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>10500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-39200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>57100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>20200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-9600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>2800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-11500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>16600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>2300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-3700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>1700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>1300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-11000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-11500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-6700</v>
       </c>
     </row>
